--- a/Autostockin/stockin49_backup.xlsx
+++ b/Autostockin/stockin49_backup.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workstuff\my-work-python-script\Autostockin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A8C209-BE0F-4F69-967F-5FEE8EF668F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F83BC3A6-C098-44E8-866E-BE8F7FC67713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Database" sheetId="2" r:id="rId2"/>
+    <sheet name="Database_Trade" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$B$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$B$104</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="1314">
   <si>
     <t>+7023-319</t>
   </si>
@@ -2478,6 +2479,1494 @@
   </si>
   <si>
     <t>+2057-780</t>
+  </si>
+  <si>
+    <t>A179-666</t>
+  </si>
+  <si>
+    <t>A160-1086</t>
+  </si>
+  <si>
+    <t>A268-242</t>
+  </si>
+  <si>
+    <t>A125-619</t>
+  </si>
+  <si>
+    <t>A648-627</t>
+  </si>
+  <si>
+    <t>A0069-366</t>
+  </si>
+  <si>
+    <t>A302-182</t>
+  </si>
+  <si>
+    <t>195-1069</t>
+  </si>
+  <si>
+    <t>A662-329</t>
+  </si>
+  <si>
+    <t>A128-469</t>
+  </si>
+  <si>
+    <t>A494-653</t>
+  </si>
+  <si>
+    <t>A0066-1363</t>
+  </si>
+  <si>
+    <t>A231-104</t>
+  </si>
+  <si>
+    <t>A0067-1363</t>
+  </si>
+  <si>
+    <t>A631-748</t>
+  </si>
+  <si>
+    <t>A376-340</t>
+  </si>
+  <si>
+    <t>A0087-720</t>
+  </si>
+  <si>
+    <t>A0055-423</t>
+  </si>
+  <si>
+    <t>A122-486</t>
+  </si>
+  <si>
+    <t>A361-683</t>
+  </si>
+  <si>
+    <t>A601-233</t>
+  </si>
+  <si>
+    <t>A543-410</t>
+  </si>
+  <si>
+    <t>360-398</t>
+  </si>
+  <si>
+    <t>A118-865</t>
+  </si>
+  <si>
+    <t>A233-286</t>
+  </si>
+  <si>
+    <t>A129-469</t>
+  </si>
+  <si>
+    <t>79-723</t>
+  </si>
+  <si>
+    <t>A543-691</t>
+  </si>
+  <si>
+    <t>A250-181</t>
+  </si>
+  <si>
+    <t>A899-106</t>
+  </si>
+  <si>
+    <t>A900-106</t>
+  </si>
+  <si>
+    <t>A519-337</t>
+  </si>
+  <si>
+    <t>A238-655</t>
+  </si>
+  <si>
+    <t>A0086-720</t>
+  </si>
+  <si>
+    <t>A228-797</t>
+  </si>
+  <si>
+    <t>A100-784</t>
+  </si>
+  <si>
+    <t>A106-1075</t>
+  </si>
+  <si>
+    <t>A163-780</t>
+  </si>
+  <si>
+    <t>A261-661</t>
+  </si>
+  <si>
+    <t>A189-654</t>
+  </si>
+  <si>
+    <t>A398-498</t>
+  </si>
+  <si>
+    <t>A213-914</t>
+  </si>
+  <si>
+    <t>A661-329</t>
+  </si>
+  <si>
+    <t>A264-414</t>
+  </si>
+  <si>
+    <t>A455-216</t>
+  </si>
+  <si>
+    <t>A518-337</t>
+  </si>
+  <si>
+    <t>A415-1067</t>
+  </si>
+  <si>
+    <t>A0031-213</t>
+  </si>
+  <si>
+    <t>A0041-1065</t>
+  </si>
+  <si>
+    <t>A161-443</t>
+  </si>
+  <si>
+    <t>A600-233</t>
+  </si>
+  <si>
+    <t>A209-695</t>
+  </si>
+  <si>
+    <t>A584-118</t>
+  </si>
+  <si>
+    <t>A361-298</t>
+  </si>
+  <si>
+    <t>A123-452</t>
+  </si>
+  <si>
+    <t>A0042-1381</t>
+  </si>
+  <si>
+    <t>A0043-1381</t>
+  </si>
+  <si>
+    <t>A416-1067</t>
+  </si>
+  <si>
+    <t>A007-1620</t>
+  </si>
+  <si>
+    <t>A160-851</t>
+  </si>
+  <si>
+    <t>A0019-1006</t>
+  </si>
+  <si>
+    <t>A144-277</t>
+  </si>
+  <si>
+    <t>A0021-755</t>
+  </si>
+  <si>
+    <t>A103-1014</t>
+  </si>
+  <si>
+    <t>A282-1113</t>
+  </si>
+  <si>
+    <t>A310-543</t>
+  </si>
+  <si>
+    <t>A0020-755</t>
+  </si>
+  <si>
+    <t>A0062-300</t>
+  </si>
+  <si>
+    <t>A0052-349</t>
+  </si>
+  <si>
+    <t>A0030-1194</t>
+  </si>
+  <si>
+    <t>85-1486</t>
+  </si>
+  <si>
+    <t>A102-1014</t>
+  </si>
+  <si>
+    <t>A604-251</t>
+  </si>
+  <si>
+    <t>A272-166</t>
+  </si>
+  <si>
+    <t>A222-215</t>
+  </si>
+  <si>
+    <t>A0079-840</t>
+  </si>
+  <si>
+    <t>A0010-2097</t>
+  </si>
+  <si>
+    <t>A313-543</t>
+  </si>
+  <si>
+    <t>A0086-672</t>
+  </si>
+  <si>
+    <t>A605-251</t>
+  </si>
+  <si>
+    <t>A606-251</t>
+  </si>
+  <si>
+    <t>34-1229</t>
+  </si>
+  <si>
+    <t>A0034-586</t>
+  </si>
+  <si>
+    <t>A312-543</t>
+  </si>
+  <si>
+    <t>A0033-1355</t>
+  </si>
+  <si>
+    <t>A126-1095</t>
+  </si>
+  <si>
+    <t>A270-166</t>
+  </si>
+  <si>
+    <t>A0068-715</t>
+  </si>
+  <si>
+    <t>A312-167</t>
+  </si>
+  <si>
+    <t>A0050-204</t>
+  </si>
+  <si>
+    <t>A102-465</t>
+  </si>
+  <si>
+    <t>A0044-1466</t>
+  </si>
+  <si>
+    <t>A281-243</t>
+  </si>
+  <si>
+    <t>A160-197</t>
+  </si>
+  <si>
+    <t>A1411-645</t>
+  </si>
+  <si>
+    <t>A389-476</t>
+  </si>
+  <si>
+    <t>A0069-715</t>
+  </si>
+  <si>
+    <t>A131-479</t>
+  </si>
+  <si>
+    <t>A388-476</t>
+  </si>
+  <si>
+    <t>A387-476</t>
+  </si>
+  <si>
+    <t>A390-476</t>
+  </si>
+  <si>
+    <t>A0093-879</t>
+  </si>
+  <si>
+    <t>A161-197</t>
+  </si>
+  <si>
+    <t>A1137-114</t>
+  </si>
+  <si>
+    <t>A153-485</t>
+  </si>
+  <si>
+    <t>A0081-997</t>
+  </si>
+  <si>
+    <t>A154-485</t>
+  </si>
+  <si>
+    <t>A280-646</t>
+  </si>
+  <si>
+    <t>A279-646</t>
+  </si>
+  <si>
+    <t>A155-485</t>
+  </si>
+  <si>
+    <t>A1140-114</t>
+  </si>
+  <si>
+    <t>A0028-446</t>
+  </si>
+  <si>
+    <t>A1414-645</t>
+  </si>
+  <si>
+    <t>134-855</t>
+  </si>
+  <si>
+    <t>A1141-114</t>
+  </si>
+  <si>
+    <t>A135-855</t>
+  </si>
+  <si>
+    <t>A0095-879</t>
+  </si>
+  <si>
+    <t>29/9/2022</t>
+  </si>
+  <si>
+    <t>+6953-910</t>
+  </si>
+  <si>
+    <t>+10822-627</t>
+  </si>
+  <si>
+    <t>+3534-1088</t>
+  </si>
+  <si>
+    <t>+3531-1088</t>
+  </si>
+  <si>
+    <t>+6951-910</t>
+  </si>
+  <si>
+    <t>+416-1548</t>
+  </si>
+  <si>
+    <t>+10826-627</t>
+  </si>
+  <si>
+    <t>+20713-109</t>
+  </si>
+  <si>
+    <t>+616-1336</t>
+  </si>
+  <si>
+    <t>+1805-997</t>
+  </si>
+  <si>
+    <t>+229-1733</t>
+  </si>
+  <si>
+    <t>+1811-1080</t>
+  </si>
+  <si>
+    <t>+0048-1727</t>
+  </si>
+  <si>
+    <t>+0039-1724</t>
+  </si>
+  <si>
+    <t>+313-821</t>
+  </si>
+  <si>
+    <t>+3846-488</t>
+  </si>
+  <si>
+    <t>+763-892</t>
+  </si>
+  <si>
+    <t>+3708-687</t>
+  </si>
+  <si>
+    <t>+1992-1058</t>
+  </si>
+  <si>
+    <t>+1077-1050</t>
+  </si>
+  <si>
+    <t>+1095-1305</t>
+  </si>
+  <si>
+    <t>+9174-300</t>
+  </si>
+  <si>
+    <t>+1642-844</t>
+  </si>
+  <si>
+    <t>+1993-1058</t>
+  </si>
+  <si>
+    <t>+2110-676</t>
+  </si>
+  <si>
+    <t>+17805-111</t>
+  </si>
+  <si>
+    <t>+606-1198</t>
+  </si>
+  <si>
+    <t>+46510-10</t>
+  </si>
+  <si>
+    <t>+127-2206</t>
+  </si>
+  <si>
+    <t>+6057-647</t>
+  </si>
+  <si>
+    <t>+3156-733</t>
+  </si>
+  <si>
+    <t>+20632-104</t>
+  </si>
+  <si>
+    <t>+35267-222</t>
+  </si>
+  <si>
+    <t>+23433-114</t>
+  </si>
+  <si>
+    <t>+224-1559</t>
+  </si>
+  <si>
+    <t>+13720-251</t>
+  </si>
+  <si>
+    <t>+168-2162</t>
+  </si>
+  <si>
+    <t>+12344-645</t>
+  </si>
+  <si>
+    <t>+16459-216</t>
+  </si>
+  <si>
+    <t>+6056-647</t>
+  </si>
+  <si>
+    <t>+19803-459</t>
+  </si>
+  <si>
+    <t>+35260-222</t>
+  </si>
+  <si>
+    <t>+391-1401</t>
+  </si>
+  <si>
+    <t>+3834-856</t>
+  </si>
+  <si>
+    <t>+362-1726</t>
+  </si>
+  <si>
+    <t>+1305-1093</t>
+  </si>
+  <si>
+    <t>+19806-459</t>
+  </si>
+  <si>
+    <t>+19800-459</t>
+  </si>
+  <si>
+    <t>+918-1429</t>
+  </si>
+  <si>
+    <t>+226-1559</t>
+  </si>
+  <si>
+    <t>+45536-147</t>
+  </si>
+  <si>
+    <t>+45535-147</t>
+  </si>
+  <si>
+    <t>4751-745</t>
+  </si>
+  <si>
+    <t>+10667-443</t>
+  </si>
+  <si>
+    <t>+1151-2002</t>
+  </si>
+  <si>
+    <t>+2334-778</t>
+  </si>
+  <si>
+    <t>+18369-112</t>
+  </si>
+  <si>
+    <t>23429-114</t>
+  </si>
+  <si>
+    <t>+19811-459</t>
+  </si>
+  <si>
+    <t>+13082-206</t>
+  </si>
+  <si>
+    <t>+19799-459</t>
+  </si>
+  <si>
+    <t>+442-1568</t>
+  </si>
+  <si>
+    <t>+19801-459</t>
+  </si>
+  <si>
+    <t>+19797-459</t>
+  </si>
+  <si>
+    <t>+19817-459</t>
+  </si>
+  <si>
+    <t>+1090-852</t>
+  </si>
+  <si>
+    <t>+1399-517</t>
+  </si>
+  <si>
+    <t>+140-1541</t>
+  </si>
+  <si>
+    <t>+10669-443</t>
+  </si>
+  <si>
+    <t>+1727-944</t>
+  </si>
+  <si>
+    <t>+575-881</t>
+  </si>
+  <si>
+    <t>+1227-1322</t>
+  </si>
+  <si>
+    <t>+19808-459</t>
+  </si>
+  <si>
+    <t>+3377-282</t>
+  </si>
+  <si>
+    <t>+18246-280</t>
+  </si>
+  <si>
+    <t>+666-1341</t>
+  </si>
+  <si>
+    <t>+176-1502</t>
+  </si>
+  <si>
+    <t>+1312-2027</t>
+  </si>
+  <si>
+    <t>+1874-738</t>
+  </si>
+  <si>
+    <t>+7905-363</t>
+  </si>
+  <si>
+    <t>+866-1438</t>
+  </si>
+  <si>
+    <t>+6388-648</t>
+  </si>
+  <si>
+    <t>+9175-300</t>
+  </si>
+  <si>
+    <t>+127-1540</t>
+  </si>
+  <si>
+    <t>+868-1438</t>
+  </si>
+  <si>
+    <t>+1464-584</t>
+  </si>
+  <si>
+    <t>+0090-1736</t>
+  </si>
+  <si>
+    <t>+514-1324</t>
+  </si>
+  <si>
+    <t>+2167-1070</t>
+  </si>
+  <si>
+    <t>+19484-646</t>
+  </si>
+  <si>
+    <t>+1352-1280</t>
+  </si>
+  <si>
+    <t>+9820-487</t>
+  </si>
+  <si>
+    <t>+1863-1314</t>
+  </si>
+  <si>
+    <t>+3046-387</t>
+  </si>
+  <si>
+    <t>+1635-434</t>
+  </si>
+  <si>
+    <t>+5178-329</t>
+  </si>
+  <si>
+    <t>+617-1336</t>
+  </si>
+  <si>
+    <t>+864-1438</t>
+  </si>
+  <si>
+    <t>325-2150</t>
+  </si>
+  <si>
+    <t>+15512-172</t>
+  </si>
+  <si>
+    <t>+2824-674</t>
+  </si>
+  <si>
+    <t>+1149-1221</t>
+  </si>
+  <si>
+    <t>+1254-1160</t>
+  </si>
+  <si>
+    <t>+417-2107</t>
+  </si>
+  <si>
+    <t>+6955-910</t>
+  </si>
+  <si>
+    <t>182-1717</t>
+  </si>
+  <si>
+    <t>+1433-1301</t>
+  </si>
+  <si>
+    <t>+4535-748</t>
+  </si>
+  <si>
+    <t>+513-2110</t>
+  </si>
+  <si>
+    <t>+869-1438</t>
+  </si>
+  <si>
+    <t>1213-1203</t>
+  </si>
+  <si>
+    <t>+0053-1106</t>
+  </si>
+  <si>
+    <t>3819-625</t>
+  </si>
+  <si>
+    <t>+4350-657</t>
+  </si>
+  <si>
+    <t>+5641-423</t>
+  </si>
+  <si>
+    <t>+867-1438</t>
+  </si>
+  <si>
+    <t>+872-1438</t>
+  </si>
+  <si>
+    <t>1451-1233</t>
+  </si>
+  <si>
+    <t>3428-926</t>
+  </si>
+  <si>
+    <t>+112-2199</t>
+  </si>
+  <si>
+    <t>+1263-2023</t>
+  </si>
+  <si>
+    <t>+2465-872</t>
+  </si>
+  <si>
+    <t>768-1298</t>
+  </si>
+  <si>
+    <t>+1614-583</t>
+  </si>
+  <si>
+    <t>+445-2125</t>
+  </si>
+  <si>
+    <t>+3957-728</t>
+  </si>
+  <si>
+    <t>+1569-493</t>
+  </si>
+  <si>
+    <t>+35288-222</t>
+  </si>
+  <si>
+    <t>1423-1216</t>
+  </si>
+  <si>
+    <t>1958-1242</t>
+  </si>
+  <si>
+    <t>+341-1184</t>
+  </si>
+  <si>
+    <t>1696-1295</t>
+  </si>
+  <si>
+    <t>+12368-645</t>
+  </si>
+  <si>
+    <t>+757-1214</t>
+  </si>
+  <si>
+    <t>+12364-645</t>
+  </si>
+  <si>
+    <t>+2241-791</t>
+  </si>
+  <si>
+    <t>+12367-645</t>
+  </si>
+  <si>
+    <t>+2830-1273</t>
+  </si>
+  <si>
+    <t>+829-576</t>
+  </si>
+  <si>
+    <t>1274-1229</t>
+  </si>
+  <si>
+    <t>+12361-645</t>
+  </si>
+  <si>
+    <t>+5213-740</t>
+  </si>
+  <si>
+    <t>+136-1749</t>
+  </si>
+  <si>
+    <t>+20703-109</t>
+  </si>
+  <si>
+    <t>+1838-1234</t>
+  </si>
+  <si>
+    <t>+1578-1177</t>
+  </si>
+  <si>
+    <t>+0038-1599</t>
+  </si>
+  <si>
+    <t>+1044-1286</t>
+  </si>
+  <si>
+    <t>+149-1537</t>
+  </si>
+  <si>
+    <t>+151-1538</t>
+  </si>
+  <si>
+    <t>+10550-215</t>
+  </si>
+  <si>
+    <t>2287-915</t>
+  </si>
+  <si>
+    <t>+9154-717</t>
+  </si>
+  <si>
+    <t>+1009-533</t>
+  </si>
+  <si>
+    <t>+19458-646</t>
+  </si>
+  <si>
+    <t>+3124-712</t>
+  </si>
+  <si>
+    <t>+0072-1762</t>
+  </si>
+  <si>
+    <t>+20634-104</t>
+  </si>
+  <si>
+    <t>+10549-215</t>
+  </si>
+  <si>
+    <t>+2887-389</t>
+  </si>
+  <si>
+    <t>+361-1726</t>
+  </si>
+  <si>
+    <t>+392-2079</t>
+  </si>
+  <si>
+    <t>+1370-1557</t>
+  </si>
+  <si>
+    <t>+9426-485</t>
+  </si>
+  <si>
+    <t>+1153-2002</t>
+  </si>
+  <si>
+    <t>+3744-932</t>
+  </si>
+  <si>
+    <t>+770-2102</t>
+  </si>
+  <si>
+    <t>+17361-277</t>
+  </si>
+  <si>
+    <t>+824-1374</t>
+  </si>
+  <si>
+    <t>+173-1527</t>
+  </si>
+  <si>
+    <t>+1528-770</t>
+  </si>
+  <si>
+    <t>+1796-420</t>
+  </si>
+  <si>
+    <t>+110-1535</t>
+  </si>
+  <si>
+    <t>+288-808</t>
+  </si>
+  <si>
+    <t>+186-1516</t>
+  </si>
+  <si>
+    <t>+620-1336</t>
+  </si>
+  <si>
+    <t>+5032-732</t>
+  </si>
+  <si>
+    <t>+876-2133</t>
+  </si>
+  <si>
+    <t>+1330-1006</t>
+  </si>
+  <si>
+    <t>779-850</t>
+  </si>
+  <si>
+    <t>2141-1220</t>
+  </si>
+  <si>
+    <t>042-1745</t>
+  </si>
+  <si>
+    <t>+2336-778</t>
+  </si>
+  <si>
+    <t>+2807-914</t>
+  </si>
+  <si>
+    <t>+219-1708</t>
+  </si>
+  <si>
+    <t>7998-301</t>
+  </si>
+  <si>
+    <t>+1022-1486</t>
+  </si>
+  <si>
+    <t>+919-880</t>
+  </si>
+  <si>
+    <t>+2379-305</t>
+  </si>
+  <si>
+    <t>+25695-119</t>
+  </si>
+  <si>
+    <t>+1156-1601</t>
+  </si>
+  <si>
+    <t>+46511-10</t>
+  </si>
+  <si>
+    <t>+3119-784</t>
+  </si>
+  <si>
+    <t>+51434-9</t>
+  </si>
+  <si>
+    <t>+838-2012</t>
+  </si>
+  <si>
+    <t>+2555-1227</t>
+  </si>
+  <si>
+    <t>+45573-147</t>
+  </si>
+  <si>
+    <t>+2696-644</t>
+  </si>
+  <si>
+    <t>+182-1734</t>
+  </si>
+  <si>
+    <t>+4962-286</t>
+  </si>
+  <si>
+    <t>+40117-167</t>
+  </si>
+  <si>
+    <t>+1000-2066</t>
+  </si>
+  <si>
+    <t>+910-893</t>
+  </si>
+  <si>
+    <t>+4954-700</t>
+  </si>
+  <si>
+    <t>+665-1271</t>
+  </si>
+  <si>
+    <t>+1550-1378</t>
+  </si>
+  <si>
+    <t>+14938-163</t>
+  </si>
+  <si>
+    <t>+1699-949</t>
+  </si>
+  <si>
+    <t>+46512-10</t>
+  </si>
+  <si>
+    <t>+1858-865</t>
+  </si>
+  <si>
+    <t>+9153-717</t>
+  </si>
+  <si>
+    <t>+1206-1316</t>
+  </si>
+  <si>
+    <t>+887-899</t>
+  </si>
+  <si>
+    <t>+12560-366</t>
+  </si>
+  <si>
+    <t>+3619-796</t>
+  </si>
+  <si>
+    <t>+12345-645</t>
+  </si>
+  <si>
+    <t>+1001-1183</t>
+  </si>
+  <si>
+    <t>+8292-479</t>
+  </si>
+  <si>
+    <t>+186974-77</t>
+  </si>
+  <si>
+    <t>+19474-646</t>
+  </si>
+  <si>
+    <t>+597-1189</t>
+  </si>
+  <si>
+    <t>+15848-609</t>
+  </si>
+  <si>
+    <t>+581-573</t>
+  </si>
+  <si>
+    <t>+8874-213</t>
+  </si>
+  <si>
+    <t>+29117-68</t>
+  </si>
+  <si>
+    <t>+818-1481</t>
+  </si>
+  <si>
+    <t>+5524-249</t>
+  </si>
+  <si>
+    <t>+37045-166</t>
+  </si>
+  <si>
+    <t>+2025-853</t>
+  </si>
+  <si>
+    <t>+40115-167</t>
+  </si>
+  <si>
+    <t>+1133-895</t>
+  </si>
+  <si>
+    <t>+5523-249</t>
+  </si>
+  <si>
+    <t>+612-894</t>
+  </si>
+  <si>
+    <t>+5522-249</t>
+  </si>
+  <si>
+    <t>+25660-119</t>
+  </si>
+  <si>
+    <t>+5525-249</t>
+  </si>
+  <si>
+    <t>+295-1714</t>
+  </si>
+  <si>
+    <t>+470-596</t>
+  </si>
+  <si>
+    <t>+40106-167</t>
+  </si>
+  <si>
+    <t>+9904-619</t>
+  </si>
+  <si>
+    <t>+40111-167</t>
+  </si>
+  <si>
+    <t>+37077-166</t>
+  </si>
+  <si>
+    <t>+40107-167</t>
+  </si>
+  <si>
+    <t>+45135-24</t>
+  </si>
+  <si>
+    <t>+438-1568</t>
+  </si>
+  <si>
+    <t>+12355-645</t>
+  </si>
+  <si>
+    <t>+24682-365</t>
+  </si>
+  <si>
+    <t>+2946-1095</t>
+  </si>
+  <si>
+    <t>+437-1568</t>
+  </si>
+  <si>
+    <t>+1017-1486</t>
+  </si>
+  <si>
+    <t>24681-365</t>
+  </si>
+  <si>
+    <t>15514-172</t>
+  </si>
+  <si>
+    <t>37044-166</t>
+  </si>
+  <si>
+    <t>+439-572</t>
+  </si>
+  <si>
+    <t>+7667-339</t>
+  </si>
+  <si>
+    <t>+3408-774</t>
+  </si>
+  <si>
+    <t>+4487-272</t>
+  </si>
+  <si>
+    <t>+8791-243</t>
+  </si>
+  <si>
+    <t>+2379-1228</t>
+  </si>
+  <si>
+    <t>+9241-444</t>
+  </si>
+  <si>
+    <t>+2219-702</t>
+  </si>
+  <si>
+    <t>+1015-1486</t>
+  </si>
+  <si>
+    <t>+220-1513</t>
+  </si>
+  <si>
+    <t>+0042-1591</t>
+  </si>
+  <si>
+    <t>+1375-2060</t>
+  </si>
+  <si>
+    <t>+2060-1098</t>
+  </si>
+  <si>
+    <t>+16484-216</t>
+  </si>
+  <si>
+    <t>+643-1478</t>
+  </si>
+  <si>
+    <t>+224-2147</t>
+  </si>
+  <si>
+    <t>+5362-636</t>
+  </si>
+  <si>
+    <t>+24683-365</t>
+  </si>
+  <si>
+    <t>+740-2124</t>
+  </si>
+  <si>
+    <t>+3218-368</t>
+  </si>
+  <si>
+    <t>+192-1519</t>
+  </si>
+  <si>
+    <t>+25692-119</t>
+  </si>
+  <si>
+    <t>+417-2115</t>
+  </si>
+  <si>
+    <t>+2987-991</t>
+  </si>
+  <si>
+    <t>+37056-166</t>
+  </si>
+  <si>
+    <t>2244-1212</t>
+  </si>
+  <si>
+    <t>+2454-741</t>
+  </si>
+  <si>
+    <t>+1976-1215</t>
+  </si>
+  <si>
+    <t>+4522-966</t>
+  </si>
+  <si>
+    <t>+3806-945</t>
+  </si>
+  <si>
+    <t>+4613-472</t>
+  </si>
+  <si>
+    <t>+324-1399</t>
+  </si>
+  <si>
+    <t>+9424-485</t>
+  </si>
+  <si>
+    <t>+9422-485</t>
+  </si>
+  <si>
+    <t>+431-2073</t>
+  </si>
+  <si>
+    <t>+6208-334</t>
+  </si>
+  <si>
+    <t>+230-2154</t>
+  </si>
+  <si>
+    <t>+151-2204</t>
+  </si>
+  <si>
+    <t>+40113-167</t>
+  </si>
+  <si>
+    <t>+429-1360</t>
+  </si>
+  <si>
+    <t>+852-1167</t>
+  </si>
+  <si>
+    <t>+2386-930</t>
+  </si>
+  <si>
+    <t>+281-1477</t>
+  </si>
+  <si>
+    <t>+2607-1074</t>
+  </si>
+  <si>
+    <t>+6428-756</t>
+  </si>
+  <si>
+    <t>+1281-845</t>
+  </si>
+  <si>
+    <t>+4705-388</t>
+  </si>
+  <si>
+    <t>+908-893</t>
+  </si>
+  <si>
+    <t>+520-2088</t>
+  </si>
+  <si>
+    <t>+1196-1342</t>
+  </si>
+  <si>
+    <t>+3234-298</t>
+  </si>
+  <si>
+    <t>+40122-167</t>
+  </si>
+  <si>
+    <t>+2331-939</t>
+  </si>
+  <si>
+    <t>+489-1405</t>
+  </si>
+  <si>
+    <t>+1199-1275</t>
+  </si>
+  <si>
+    <t>+18248-280</t>
+  </si>
+  <si>
+    <t>+2663-310</t>
+  </si>
+  <si>
+    <t>+961-1196</t>
+  </si>
+  <si>
+    <t>+2364-884</t>
+  </si>
+  <si>
+    <t>+1995-1058</t>
+  </si>
+  <si>
+    <t>+1016-1486</t>
+  </si>
+  <si>
+    <t>+1462-584</t>
+  </si>
+  <si>
+    <t>+5215-740</t>
+  </si>
+  <si>
+    <t>970-1260</t>
+  </si>
+  <si>
+    <t>+7666-339</t>
+  </si>
+  <si>
+    <t>+310-2149</t>
+  </si>
+  <si>
+    <t>+155-1509</t>
+  </si>
+  <si>
+    <t>+873-1438</t>
+  </si>
+  <si>
+    <t>+1142-890</t>
+  </si>
+  <si>
+    <t>+40094-167</t>
+  </si>
+  <si>
+    <t>+7602-356</t>
+  </si>
+  <si>
+    <t>+1996-1058</t>
+  </si>
+  <si>
+    <t>+345-586</t>
+  </si>
+  <si>
+    <t>+16496-216</t>
+  </si>
+  <si>
+    <t>+1536-1191</t>
+  </si>
+  <si>
+    <t>+447-1366</t>
+  </si>
+  <si>
+    <t>+5319-720</t>
+  </si>
+  <si>
+    <t>+125-1725</t>
+  </si>
+  <si>
+    <t>+37043-166</t>
+  </si>
+  <si>
+    <t>+37065-166</t>
+  </si>
+  <si>
+    <t>+598-1487</t>
+  </si>
+  <si>
+    <t>+0039-1582</t>
+  </si>
+  <si>
+    <t>1651-552</t>
+  </si>
+  <si>
+    <t>+1994-1058</t>
+  </si>
+  <si>
+    <t>+887-581</t>
+  </si>
+  <si>
+    <t>+614-1313</t>
+  </si>
+  <si>
+    <t>+529-2016</t>
+  </si>
+  <si>
+    <t>+644-1397</t>
+  </si>
+  <si>
+    <t>+1153-1276</t>
+  </si>
+  <si>
+    <t>+0079-1352</t>
+  </si>
+  <si>
+    <t>+3066-672</t>
+  </si>
+  <si>
+    <t>+2541-668</t>
+  </si>
+  <si>
+    <t>+304-827</t>
+  </si>
+  <si>
+    <t>+15322-639</t>
+  </si>
+  <si>
+    <t>+1778-785</t>
+  </si>
+  <si>
+    <t>+1132-1063</t>
+  </si>
+  <si>
+    <t>+9421-485</t>
+  </si>
+  <si>
+    <t>+5219-740</t>
+  </si>
+  <si>
+    <t>+1347-1055</t>
+  </si>
+  <si>
+    <t>+40093-167</t>
+  </si>
+  <si>
+    <t>+5107-669</t>
+  </si>
+  <si>
+    <t>+46507-10</t>
+  </si>
+  <si>
+    <t>+2373-305</t>
+  </si>
+  <si>
+    <t>+6564-271</t>
+  </si>
+  <si>
+    <t>+587-1554</t>
+  </si>
+  <si>
+    <t>+37070-166</t>
+  </si>
+  <si>
+    <t>+615-846</t>
+  </si>
+  <si>
+    <t>+6948-910</t>
+  </si>
+  <si>
+    <t>+7815-211</t>
+  </si>
+  <si>
+    <t>+6950-910</t>
+  </si>
+  <si>
+    <t>+596-559</t>
+  </si>
+  <si>
+    <t>+1262-891</t>
+  </si>
+  <si>
+    <t>+13633-398</t>
+  </si>
+  <si>
+    <t>+2833-1102</t>
+  </si>
+  <si>
+    <t>+3670-730</t>
+  </si>
+  <si>
+    <t>+902-885</t>
+  </si>
+  <si>
+    <t>+0030-1778</t>
+  </si>
+  <si>
+    <t>+406-1362</t>
+  </si>
+  <si>
+    <t>181-1717</t>
+  </si>
+  <si>
+    <t>+640-2074</t>
+  </si>
+  <si>
+    <t>+0064-1578</t>
+  </si>
+  <si>
+    <t>+609-1198</t>
+  </si>
+  <si>
+    <t>+17370-277</t>
+  </si>
+  <si>
+    <t>+182-1545</t>
+  </si>
+  <si>
+    <t>+519-1324</t>
   </si>
 </sst>
 </file>
@@ -2806,10 +4295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A166"/>
+  <dimension ref="A1:A379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167"/>
+    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="A380" sqref="A380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2819,832 +4308,1897 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>652</v>
+        <v>936</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>653</v>
+        <v>937</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>654</v>
+        <v>938</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>655</v>
+        <v>939</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>656</v>
+        <v>940</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>657</v>
+        <v>941</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>658</v>
+        <v>942</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>659</v>
+        <v>943</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>660</v>
+        <v>944</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>661</v>
+        <v>945</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>662</v>
+        <v>946</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>663</v>
+        <v>947</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>664</v>
+        <v>948</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>665</v>
+        <v>949</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>666</v>
+        <v>950</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>667</v>
+        <v>951</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>668</v>
+        <v>952</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>669</v>
+        <v>953</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>670</v>
+        <v>954</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>671</v>
+        <v>955</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>672</v>
+        <v>956</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>673</v>
+        <v>957</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>674</v>
+        <v>958</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>675</v>
+        <v>959</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>676</v>
+        <v>960</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>677</v>
+        <v>961</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>678</v>
+        <v>962</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>679</v>
+        <v>963</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>680</v>
+        <v>964</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>681</v>
+        <v>965</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>682</v>
+        <v>966</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>683</v>
+        <v>945</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>684</v>
+        <v>967</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>685</v>
+        <v>968</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>686</v>
+        <v>969</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>687</v>
+        <v>970</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>688</v>
+        <v>971</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>689</v>
+        <v>972</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>690</v>
+        <v>973</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>691</v>
+        <v>974</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>692</v>
+        <v>975</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>693</v>
+        <v>976</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>694</v>
+        <v>977</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>695</v>
+        <v>978</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>696</v>
+        <v>979</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>697</v>
+        <v>980</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>698</v>
+        <v>981</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>699</v>
+        <v>982</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>700</v>
+        <v>983</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>701</v>
+        <v>984</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>702</v>
+        <v>985</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>703</v>
+        <v>986</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>704</v>
+        <v>987</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>705</v>
+        <v>988</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>706</v>
+        <v>989</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>707</v>
+        <v>990</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>708</v>
+        <v>991</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>709</v>
+        <v>992</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>710</v>
+        <v>993</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>711</v>
+        <v>994</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>712</v>
+        <v>995</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>713</v>
+        <v>996</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>714</v>
+        <v>997</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>715</v>
+        <v>998</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>716</v>
+        <v>999</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>717</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>718</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>719</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>720</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>721</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>722</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>723</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>724</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>725</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>726</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>727</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>728</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>729</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>730</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>731</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>732</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>733</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>734</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>735</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>736</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>737</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>738</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>739</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>740</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>741</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>742</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>743</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>744</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>745</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>746</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>747</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>748</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>749</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>750</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>751</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>752</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>753</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>754</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>755</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>756</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>757</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>758</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>759</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>760</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>761</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>762</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>763</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>764</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>765</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>766</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>767</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>768</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>769</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>770</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>771</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>772</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>773</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>774</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>775</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>776</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>777</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>778</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>779</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>780</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>781</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>782</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>783</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>784</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>785</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>786</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>787</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>788</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>789</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>790</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>791</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>792</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>793</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>794</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>795</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>796</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>797</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>798</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>799</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>800</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>801</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>802</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>803</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>804</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>805</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>806</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>807</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>808</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>809</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>810</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>811</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>812</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>813</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>814</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>815</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>816</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>817</v>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>1313</v>
       </c>
     </row>
   </sheetData>
@@ -3655,10 +6209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F307"/>
+  <dimension ref="A1:H307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3666,9 +6220,10 @@
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>44828</v>
       </c>
@@ -3687,8 +6242,14 @@
       <c r="F1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2">
+        <v>44832</v>
+      </c>
+      <c r="H1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>223</v>
       </c>
@@ -3707,8 +6268,14 @@
       <c r="F2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>225</v>
       </c>
@@ -3727,8 +6294,14 @@
       <c r="F3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>227</v>
       </c>
@@ -3747,8 +6320,14 @@
       <c r="F4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>229</v>
       </c>
@@ -3767,8 +6346,14 @@
       <c r="F5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>231</v>
       </c>
@@ -3787,8 +6372,14 @@
       <c r="F6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>233</v>
       </c>
@@ -3807,8 +6398,14 @@
       <c r="F7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>235</v>
       </c>
@@ -3827,8 +6424,14 @@
       <c r="F8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>237</v>
       </c>
@@ -3847,8 +6450,14 @@
       <c r="F9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>239</v>
       </c>
@@ -3867,8 +6476,14 @@
       <c r="F10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>241</v>
       </c>
@@ -3887,8 +6502,14 @@
       <c r="F11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>243</v>
       </c>
@@ -3907,8 +6528,14 @@
       <c r="F12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>245</v>
       </c>
@@ -3927,8 +6554,14 @@
       <c r="F13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>247</v>
       </c>
@@ -3947,8 +6580,14 @@
       <c r="F14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>249</v>
       </c>
@@ -3967,8 +6606,14 @@
       <c r="F15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>251</v>
       </c>
@@ -3987,8 +6632,14 @@
       <c r="F16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>253</v>
       </c>
@@ -4007,8 +6658,14 @@
       <c r="F17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>255</v>
       </c>
@@ -4027,8 +6684,14 @@
       <c r="F18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>257</v>
       </c>
@@ -4047,8 +6710,14 @@
       <c r="F19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>259</v>
       </c>
@@ -4067,8 +6736,14 @@
       <c r="F20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>261</v>
       </c>
@@ -4087,8 +6762,14 @@
       <c r="F21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>263</v>
       </c>
@@ -4107,8 +6788,14 @@
       <c r="F22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>265</v>
       </c>
@@ -4127,8 +6814,14 @@
       <c r="F23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="H23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>267</v>
       </c>
@@ -4147,8 +6840,14 @@
       <c r="F24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="H24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>269</v>
       </c>
@@ -4167,8 +6866,14 @@
       <c r="F25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>271</v>
       </c>
@@ -4187,8 +6892,14 @@
       <c r="F26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>273</v>
       </c>
@@ -4207,8 +6918,14 @@
       <c r="F27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>275</v>
       </c>
@@ -4227,8 +6944,14 @@
       <c r="F28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="H28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>277</v>
       </c>
@@ -4247,8 +6970,14 @@
       <c r="F29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="H29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>279</v>
       </c>
@@ -4267,8 +6996,14 @@
       <c r="F30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="H30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>281</v>
       </c>
@@ -4287,8 +7022,14 @@
       <c r="F31" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>283</v>
       </c>
@@ -4307,8 +7048,14 @@
       <c r="F32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>285</v>
       </c>
@@ -4327,8 +7074,14 @@
       <c r="F33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="H33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>287</v>
       </c>
@@ -4347,8 +7100,14 @@
       <c r="F34" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="H34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>289</v>
       </c>
@@ -4367,8 +7126,14 @@
       <c r="F35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="H35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>291</v>
       </c>
@@ -4387,8 +7152,14 @@
       <c r="F36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="H36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>293</v>
       </c>
@@ -4407,8 +7178,14 @@
       <c r="F37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="H37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>295</v>
       </c>
@@ -4427,8 +7204,14 @@
       <c r="F38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="H38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>297</v>
       </c>
@@ -4447,8 +7230,14 @@
       <c r="F39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="H39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>299</v>
       </c>
@@ -4467,8 +7256,14 @@
       <c r="F40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="H40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>301</v>
       </c>
@@ -4487,8 +7282,14 @@
       <c r="F41" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="H41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>303</v>
       </c>
@@ -4507,8 +7308,14 @@
       <c r="F42" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>305</v>
       </c>
@@ -4527,8 +7334,14 @@
       <c r="F43" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="H43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>307</v>
       </c>
@@ -4547,8 +7360,14 @@
       <c r="F44" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="H44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>309</v>
       </c>
@@ -4567,8 +7386,14 @@
       <c r="F45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="H45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>311</v>
       </c>
@@ -4587,8 +7412,14 @@
       <c r="F46" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="H46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>313</v>
       </c>
@@ -4607,8 +7438,14 @@
       <c r="F47" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="H47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>315</v>
       </c>
@@ -4627,8 +7464,14 @@
       <c r="F48" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>317</v>
       </c>
@@ -4647,8 +7490,14 @@
       <c r="F49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="H49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>319</v>
       </c>
@@ -4667,8 +7516,14 @@
       <c r="F50" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="H50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>321</v>
       </c>
@@ -4687,8 +7542,14 @@
       <c r="F51" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="H51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>323</v>
       </c>
@@ -4707,8 +7568,14 @@
       <c r="F52" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="H52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>325</v>
       </c>
@@ -4727,8 +7594,14 @@
       <c r="F53" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="H53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>327</v>
       </c>
@@ -4747,8 +7620,14 @@
       <c r="F54" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="H54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>329</v>
       </c>
@@ -4767,8 +7646,14 @@
       <c r="F55" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="H55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>331</v>
       </c>
@@ -4787,8 +7672,14 @@
       <c r="F56" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="H56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>333</v>
       </c>
@@ -4807,8 +7698,14 @@
       <c r="F57" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="H57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>335</v>
       </c>
@@ -4827,8 +7724,14 @@
       <c r="F58" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="H58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>337</v>
       </c>
@@ -4847,8 +7750,14 @@
       <c r="F59" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="H59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>339</v>
       </c>
@@ -4867,8 +7776,14 @@
       <c r="F60" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="H60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>341</v>
       </c>
@@ -4887,8 +7802,14 @@
       <c r="F61" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="H61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>343</v>
       </c>
@@ -4907,8 +7828,14 @@
       <c r="F62" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="H62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>345</v>
       </c>
@@ -4927,8 +7854,14 @@
       <c r="F63" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="H63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>347</v>
       </c>
@@ -4947,8 +7880,14 @@
       <c r="F64" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="H64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>349</v>
       </c>
@@ -4967,8 +7906,14 @@
       <c r="F65" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="H65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>351</v>
       </c>
@@ -4987,8 +7932,14 @@
       <c r="F66" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="H66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>353</v>
       </c>
@@ -5007,8 +7958,14 @@
       <c r="F67" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="H67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>355</v>
       </c>
@@ -5027,8 +7984,14 @@
       <c r="F68" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="H68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>357</v>
       </c>
@@ -5047,8 +8010,14 @@
       <c r="F69" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="H69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>359</v>
       </c>
@@ -5067,8 +8036,14 @@
       <c r="F70" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="H70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>361</v>
       </c>
@@ -5087,8 +8062,14 @@
       <c r="F71" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="H71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>363</v>
       </c>
@@ -5107,8 +8088,14 @@
       <c r="F72" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="H72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>365</v>
       </c>
@@ -5127,8 +8114,14 @@
       <c r="F73" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="H73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>367</v>
       </c>
@@ -5147,8 +8140,14 @@
       <c r="F74" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="H74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>369</v>
       </c>
@@ -5167,8 +8166,14 @@
       <c r="F75" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="H75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>371</v>
       </c>
@@ -5187,8 +8192,14 @@
       <c r="F76" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="H76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>373</v>
       </c>
@@ -5207,8 +8218,14 @@
       <c r="F77" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="H77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>375</v>
       </c>
@@ -5227,8 +8244,14 @@
       <c r="F78" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="H78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>377</v>
       </c>
@@ -5247,8 +8270,14 @@
       <c r="F79" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="H79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>379</v>
       </c>
@@ -5267,8 +8296,14 @@
       <c r="F80" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="H80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>381</v>
       </c>
@@ -5287,8 +8322,14 @@
       <c r="F81" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="H81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>383</v>
       </c>
@@ -5307,8 +8348,14 @@
       <c r="F82" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="H82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>385</v>
       </c>
@@ -5327,8 +8374,14 @@
       <c r="F83" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="H83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>387</v>
       </c>
@@ -5347,8 +8400,14 @@
       <c r="F84" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="H84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>389</v>
       </c>
@@ -5367,8 +8426,14 @@
       <c r="F85" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="H85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>391</v>
       </c>
@@ -5387,8 +8452,14 @@
       <c r="F86" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="H86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>393</v>
       </c>
@@ -5407,8 +8478,14 @@
       <c r="F87" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="H87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>395</v>
       </c>
@@ -5427,8 +8504,14 @@
       <c r="F88" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="H88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>397</v>
       </c>
@@ -5447,8 +8530,14 @@
       <c r="F89" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="H89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>399</v>
       </c>
@@ -5467,8 +8556,14 @@
       <c r="F90" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="H90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>401</v>
       </c>
@@ -5487,8 +8582,14 @@
       <c r="F91" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="H91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>403</v>
       </c>
@@ -5507,8 +8608,14 @@
       <c r="F92" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="H92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>405</v>
       </c>
@@ -5527,8 +8634,14 @@
       <c r="F93" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="H93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>407</v>
       </c>
@@ -5547,8 +8660,14 @@
       <c r="F94" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="H94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>409</v>
       </c>
@@ -5567,8 +8686,14 @@
       <c r="F95" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="H95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>411</v>
       </c>
@@ -5587,8 +8712,14 @@
       <c r="F96" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>413</v>
       </c>
@@ -5607,8 +8738,14 @@
       <c r="F97" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="H97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>415</v>
       </c>
@@ -5627,8 +8764,14 @@
       <c r="F98" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>417</v>
       </c>
@@ -5647,8 +8790,14 @@
       <c r="F99" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="H99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>419</v>
       </c>
@@ -5667,8 +8816,14 @@
       <c r="F100" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>421</v>
       </c>
@@ -5687,8 +8842,14 @@
       <c r="F101" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="H101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>423</v>
       </c>
@@ -5707,8 +8868,14 @@
       <c r="F102" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="H102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>425</v>
       </c>
@@ -5727,8 +8894,14 @@
       <c r="F103" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="H103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>427</v>
       </c>
@@ -5747,8 +8920,14 @@
       <c r="F104" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="H104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>429</v>
       </c>
@@ -5767,8 +8946,14 @@
       <c r="F105" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="H105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>431</v>
       </c>
@@ -5787,8 +8972,14 @@
       <c r="F106" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="H106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>433</v>
       </c>
@@ -5807,8 +8998,14 @@
       <c r="F107" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="H107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>435</v>
       </c>
@@ -5827,8 +9024,14 @@
       <c r="F108" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="H108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>437</v>
       </c>
@@ -5847,8 +9050,14 @@
       <c r="F109" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="H109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>439</v>
       </c>
@@ -5867,8 +9076,14 @@
       <c r="F110" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="H110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>441</v>
       </c>
@@ -5887,8 +9102,14 @@
       <c r="F111" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="H111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>443</v>
       </c>
@@ -5907,8 +9128,14 @@
       <c r="F112" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="H112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>445</v>
       </c>
@@ -5927,8 +9154,14 @@
       <c r="F113" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="H113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>447</v>
       </c>
@@ -5947,8 +9180,14 @@
       <c r="F114" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="H114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>449</v>
       </c>
@@ -5967,8 +9206,14 @@
       <c r="F115" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="H115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>451</v>
       </c>
@@ -5987,8 +9232,14 @@
       <c r="F116" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="H116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>453</v>
       </c>
@@ -6007,8 +9258,14 @@
       <c r="F117" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="H117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>455</v>
       </c>
@@ -6027,8 +9284,14 @@
       <c r="F118" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="H118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>457</v>
       </c>
@@ -6047,8 +9310,14 @@
       <c r="F119" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="H119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>459</v>
       </c>
@@ -6067,8 +9336,14 @@
       <c r="F120" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="H120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>461</v>
       </c>
@@ -6087,8 +9362,14 @@
       <c r="F121" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="H121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>463</v>
       </c>
@@ -6107,8 +9388,14 @@
       <c r="F122" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="H122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>465</v>
       </c>
@@ -6127,8 +9414,14 @@
       <c r="F123" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="H123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>467</v>
       </c>
@@ -6147,8 +9440,14 @@
       <c r="F124" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="H124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C125" s="1" t="s">
         <v>469</v>
       </c>
@@ -6161,8 +9460,14 @@
       <c r="F125" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="H125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C126" s="1" t="s">
         <v>470</v>
       </c>
@@ -6175,8 +9480,14 @@
       <c r="F126" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="H126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C127" s="1" t="s">
         <v>471</v>
       </c>
@@ -6189,8 +9500,14 @@
       <c r="F127" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="H127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C128" s="1" t="s">
         <v>472</v>
       </c>
@@ -6203,8 +9520,14 @@
       <c r="F128" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G128" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="H128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C129" s="1" t="s">
         <v>473</v>
       </c>
@@ -6217,8 +9540,14 @@
       <c r="F129" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G129" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="H129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C130" s="1" t="s">
         <v>474</v>
       </c>
@@ -6231,8 +9560,14 @@
       <c r="F130" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G130" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C131" s="1" t="s">
         <v>475</v>
       </c>
@@ -6245,8 +9580,14 @@
       <c r="F131" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G131" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="H131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C132" s="1" t="s">
         <v>476</v>
       </c>
@@ -6259,8 +9600,14 @@
       <c r="F132" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G132" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="H132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C133" s="1" t="s">
         <v>477</v>
       </c>
@@ -6273,8 +9620,14 @@
       <c r="F133" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G133" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="H133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C134" s="1" t="s">
         <v>478</v>
       </c>
@@ -6287,8 +9640,14 @@
       <c r="F134" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G134" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="H134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C135" s="1" t="s">
         <v>479</v>
       </c>
@@ -6301,8 +9660,14 @@
       <c r="F135" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G135" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C136" s="1" t="s">
         <v>480</v>
       </c>
@@ -6315,8 +9680,14 @@
       <c r="F136" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G136" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="H136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C137" s="1" t="s">
         <v>481</v>
       </c>
@@ -6329,8 +9700,14 @@
       <c r="F137" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G137" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="H137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C138" s="1" t="s">
         <v>482</v>
       </c>
@@ -6343,8 +9720,14 @@
       <c r="F138" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G138" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="H138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C139" s="1" t="s">
         <v>483</v>
       </c>
@@ -6357,8 +9740,14 @@
       <c r="F139" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G139" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="H139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C140" s="1" t="s">
         <v>484</v>
       </c>
@@ -6371,8 +9760,14 @@
       <c r="F140" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G140" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="H140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C141" s="1" t="s">
         <v>485</v>
       </c>
@@ -6385,8 +9780,14 @@
       <c r="F141" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G141" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="H141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C142" s="1" t="s">
         <v>486</v>
       </c>
@@ -6399,8 +9800,14 @@
       <c r="F142" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G142" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="H142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C143" s="1" t="s">
         <v>487</v>
       </c>
@@ -6413,8 +9820,14 @@
       <c r="F143" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G143" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="H143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C144" s="1" t="s">
         <v>488</v>
       </c>
@@ -6427,8 +9840,14 @@
       <c r="F144" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G144" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="H144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C145" s="1" t="s">
         <v>489</v>
       </c>
@@ -6441,8 +9860,14 @@
       <c r="F145" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G145" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="H145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C146" s="1" t="s">
         <v>490</v>
       </c>
@@ -6455,8 +9880,14 @@
       <c r="F146" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G146" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="H146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C147" s="1" t="s">
         <v>491</v>
       </c>
@@ -6469,8 +9900,14 @@
       <c r="F147" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G147" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="H147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C148" s="1" t="s">
         <v>492</v>
       </c>
@@ -6483,8 +9920,14 @@
       <c r="F148" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G148" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="H148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C149" s="1" t="s">
         <v>493</v>
       </c>
@@ -6497,8 +9940,14 @@
       <c r="F149" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G149" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C150" s="1" t="s">
         <v>494</v>
       </c>
@@ -6511,8 +9960,14 @@
       <c r="F150" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G150" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="H150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C151" s="1" t="s">
         <v>495</v>
       </c>
@@ -6525,8 +9980,14 @@
       <c r="F151" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G151" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="H151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C152" s="1" t="s">
         <v>496</v>
       </c>
@@ -6539,8 +10000,14 @@
       <c r="F152" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G152" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="H152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C153" s="1" t="s">
         <v>497</v>
       </c>
@@ -6553,8 +10020,14 @@
       <c r="F153" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G153" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="H153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C154" s="1" t="s">
         <v>498</v>
       </c>
@@ -6567,8 +10040,14 @@
       <c r="F154" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G154" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="H154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C155" s="1" t="s">
         <v>499</v>
       </c>
@@ -6581,8 +10060,14 @@
       <c r="F155" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G155" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="H155" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C156" s="1" t="s">
         <v>500</v>
       </c>
@@ -6595,8 +10080,14 @@
       <c r="F156" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G156" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="H156" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C157" s="1" t="s">
         <v>501</v>
       </c>
@@ -6609,8 +10100,14 @@
       <c r="F157" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G157" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="H157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C158" s="1" t="s">
         <v>502</v>
       </c>
@@ -6623,8 +10120,14 @@
       <c r="F158" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G158" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="H158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C159" s="1" t="s">
         <v>503</v>
       </c>
@@ -6637,8 +10140,14 @@
       <c r="F159" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G159" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="H159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C160" s="1" t="s">
         <v>504</v>
       </c>
@@ -6651,8 +10160,14 @@
       <c r="F160" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G160" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="H160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C161" s="1" t="s">
         <v>505</v>
       </c>
@@ -6665,8 +10180,14 @@
       <c r="F161" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G161" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="H161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C162" s="1" t="s">
         <v>506</v>
       </c>
@@ -6679,8 +10200,14 @@
       <c r="F162" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G162" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="H162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C163" s="1" t="s">
         <v>507</v>
       </c>
@@ -6693,8 +10220,14 @@
       <c r="F163" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G163" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="H163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C164" s="1" t="s">
         <v>508</v>
       </c>
@@ -6707,8 +10240,14 @@
       <c r="F164" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G164" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="H164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C165" s="1" t="s">
         <v>509</v>
       </c>
@@ -6721,8 +10260,14 @@
       <c r="F165" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G165" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="H165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C166" s="1" t="s">
         <v>510</v>
       </c>
@@ -6735,8 +10280,14 @@
       <c r="F166" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G166" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="H166" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C167" s="1" t="s">
         <v>511</v>
       </c>
@@ -6749,8 +10300,14 @@
       <c r="F167" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G167" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="H167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C168" s="1" t="s">
         <v>512</v>
       </c>
@@ -6764,7 +10321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C169" s="1" t="s">
         <v>513</v>
       </c>
@@ -6778,7 +10335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C170" s="1" t="s">
         <v>514</v>
       </c>
@@ -6792,7 +10349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C171" s="1" t="s">
         <v>515</v>
       </c>
@@ -6806,7 +10363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C172" s="1" t="s">
         <v>516</v>
       </c>
@@ -6820,7 +10377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C173" s="1" t="s">
         <v>517</v>
       </c>
@@ -6834,7 +10391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C174" s="1" t="s">
         <v>518</v>
       </c>
@@ -6848,7 +10405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C175" s="1" t="s">
         <v>519</v>
       </c>
@@ -6862,7 +10419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C176" s="1" t="s">
         <v>520</v>
       </c>
@@ -8191,6 +11748,976 @@
         <v>651</v>
       </c>
       <c r="D307" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1AA574-C5B3-419B-9DE8-902285DD1EA0}">
+  <dimension ref="A1:B119"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B119" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Autostockin/stockin49_backup.xlsx
+++ b/Autostockin/stockin49_backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workstuff\my-work-python-script\Autostockin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F83BC3A6-C098-44E8-866E-BE8F7FC67713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B37382C-3062-442E-BA58-00B5502A5370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4770" yWindow="1200" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2794" uniqueCount="1475">
   <si>
     <t>+7023-319</t>
   </si>
@@ -3967,6 +3967,489 @@
   </si>
   <si>
     <t>+519-1324</t>
+  </si>
+  <si>
+    <t>+457-838</t>
+  </si>
+  <si>
+    <t>+5767-308</t>
+  </si>
+  <si>
+    <t>+12363-645</t>
+  </si>
+  <si>
+    <t>+6952-910</t>
+  </si>
+  <si>
+    <t>+422-1548</t>
+  </si>
+  <si>
+    <t>+4127-661</t>
+  </si>
+  <si>
+    <t>+510-1324</t>
+  </si>
+  <si>
+    <t>+4972-744</t>
+  </si>
+  <si>
+    <t>+35269-222</t>
+  </si>
+  <si>
+    <t>+1759-1382</t>
+  </si>
+  <si>
+    <t>+16499-216</t>
+  </si>
+  <si>
+    <t>+6974-910</t>
+  </si>
+  <si>
+    <t>+35262-222</t>
+  </si>
+  <si>
+    <t>+642-1328</t>
+  </si>
+  <si>
+    <t>+6956-910</t>
+  </si>
+  <si>
+    <t>+794-1300</t>
+  </si>
+  <si>
+    <t>+865-1438</t>
+  </si>
+  <si>
+    <t>+1063-1101</t>
+  </si>
+  <si>
+    <t>+2166-1070</t>
+  </si>
+  <si>
+    <t>+35261-222</t>
+  </si>
+  <si>
+    <t>+23450-114</t>
+  </si>
+  <si>
+    <t>+3233-298</t>
+  </si>
+  <si>
+    <t>+615-1336</t>
+  </si>
+  <si>
+    <t>+871-1438</t>
+  </si>
+  <si>
+    <t>+3528-789</t>
+  </si>
+  <si>
+    <t>+6947-910</t>
+  </si>
+  <si>
+    <t>+6954-910</t>
+  </si>
+  <si>
+    <t>+3533-1088</t>
+  </si>
+  <si>
+    <t>+646-1287</t>
+  </si>
+  <si>
+    <t>+651-1287</t>
+  </si>
+  <si>
+    <t>+0052-1742</t>
+  </si>
+  <si>
+    <t>+116-1713</t>
+  </si>
+  <si>
+    <t>+3529-1088</t>
+  </si>
+  <si>
+    <t>+14016-293</t>
+  </si>
+  <si>
+    <t>+949-870</t>
+  </si>
+  <si>
+    <t>+2705-660</t>
+  </si>
+  <si>
+    <t>+417-1548</t>
+  </si>
+  <si>
+    <t>+420-1548</t>
+  </si>
+  <si>
+    <t>+935-870</t>
+  </si>
+  <si>
+    <t>+6030-1075</t>
+  </si>
+  <si>
+    <t>+630-593</t>
+  </si>
+  <si>
+    <t>+15510-172</t>
+  </si>
+  <si>
+    <t>+5034-732</t>
+  </si>
+  <si>
+    <t>528-998</t>
+  </si>
+  <si>
+    <t>+1617-1062</t>
+  </si>
+  <si>
+    <t>+3646-1014</t>
+  </si>
+  <si>
+    <t>+4533-748</t>
+  </si>
+  <si>
+    <t>+163-1529</t>
+  </si>
+  <si>
+    <t>+6908-263</t>
+  </si>
+  <si>
+    <t>+527-2039</t>
+  </si>
+  <si>
+    <t>+219-1716</t>
+  </si>
+  <si>
+    <t>+920-2036</t>
+  </si>
+  <si>
+    <t>+461-1111</t>
+  </si>
+  <si>
+    <t>+939-1290</t>
+  </si>
+  <si>
+    <t>+901-1174</t>
+  </si>
+  <si>
+    <t>6476-693</t>
+  </si>
+  <si>
+    <t>+188-1545</t>
+  </si>
+  <si>
+    <t>+0060-1350</t>
+  </si>
+  <si>
+    <t>+957-1196</t>
+  </si>
+  <si>
+    <t>+965-1196</t>
+  </si>
+  <si>
+    <t>+3530-1088</t>
+  </si>
+  <si>
+    <t>+1854-987</t>
+  </si>
+  <si>
+    <t>+0090-595</t>
+  </si>
+  <si>
+    <t>+0022-1743</t>
+  </si>
+  <si>
+    <t>+138-1504</t>
+  </si>
+  <si>
+    <t>+5217-740</t>
+  </si>
+  <si>
+    <t>+2553-511</t>
+  </si>
+  <si>
+    <t>+750-1303</t>
+  </si>
+  <si>
+    <t>+1876-738</t>
+  </si>
+  <si>
+    <t>+1026-2139</t>
+  </si>
+  <si>
+    <t>+6054-1075</t>
+  </si>
+  <si>
+    <t>+1376-2065</t>
+  </si>
+  <si>
+    <t>+1715-1204</t>
+  </si>
+  <si>
+    <t>+132-1534</t>
+  </si>
+  <si>
+    <t>+288-1327</t>
+  </si>
+  <si>
+    <t>+1685-979</t>
+  </si>
+  <si>
+    <t>+958-1196</t>
+  </si>
+  <si>
+    <t>+929-2044</t>
+  </si>
+  <si>
+    <t>+641-2070</t>
+  </si>
+  <si>
+    <t>+176-1526</t>
+  </si>
+  <si>
+    <t>+5220-740</t>
+  </si>
+  <si>
+    <t>+1187-1131</t>
+  </si>
+  <si>
+    <t>+180-1586</t>
+  </si>
+  <si>
+    <t>+5224-740</t>
+  </si>
+  <si>
+    <t>+3629-683</t>
+  </si>
+  <si>
+    <t>+1159-1451</t>
+  </si>
+  <si>
+    <t>+1339-1072</t>
+  </si>
+  <si>
+    <t>+5214-740</t>
+  </si>
+  <si>
+    <t>+323-1489</t>
+  </si>
+  <si>
+    <t>+230-1512</t>
+  </si>
+  <si>
+    <t>+1553-928</t>
+  </si>
+  <si>
+    <t>+1157-1451</t>
+  </si>
+  <si>
+    <t>+9648-245</t>
+  </si>
+  <si>
+    <t>+2945-1095</t>
+  </si>
+  <si>
+    <t>+1678-840</t>
+  </si>
+  <si>
+    <t>+1868-1046</t>
+  </si>
+  <si>
+    <t>+772-1415</t>
+  </si>
+  <si>
+    <t>+6026-1075</t>
+  </si>
+  <si>
+    <t>+966-1196</t>
+  </si>
+  <si>
+    <t>+5442-318</t>
+  </si>
+  <si>
+    <t>+4402-369</t>
+  </si>
+  <si>
+    <t>+1336-1072</t>
+  </si>
+  <si>
+    <t>+1015-1186</t>
+  </si>
+  <si>
+    <t>+5223-740</t>
+  </si>
+  <si>
+    <t>+6027-1075</t>
+  </si>
+  <si>
+    <t>+5221-740</t>
+  </si>
+  <si>
+    <t>7986-301</t>
+  </si>
+  <si>
+    <t>+418-1548</t>
+  </si>
+  <si>
+    <t>+4584-608</t>
+  </si>
+  <si>
+    <t>+808-546</t>
+  </si>
+  <si>
+    <t>+217-1515</t>
+  </si>
+  <si>
+    <t>+653-580</t>
+  </si>
+  <si>
+    <t>+159-1752</t>
+  </si>
+  <si>
+    <t>+3490-743</t>
+  </si>
+  <si>
+    <t>+513-1324</t>
+  </si>
+  <si>
+    <t>+956-1196</t>
+  </si>
+  <si>
+    <t>+1884-854</t>
+  </si>
+  <si>
+    <t>+2986-1068</t>
+  </si>
+  <si>
+    <t>+346-805</t>
+  </si>
+  <si>
+    <t>+23453-114</t>
+  </si>
+  <si>
+    <t>+2916-691</t>
+  </si>
+  <si>
+    <t>+4100-755</t>
+  </si>
+  <si>
+    <t>+8841-749</t>
+  </si>
+  <si>
+    <t>+2728-1085</t>
+  </si>
+  <si>
+    <t>+2366-666</t>
+  </si>
+  <si>
+    <t>2731-1085</t>
+  </si>
+  <si>
+    <t>+2327-1381</t>
+  </si>
+  <si>
+    <t>+2730-1085</t>
+  </si>
+  <si>
+    <t>+0043-1747</t>
+  </si>
+  <si>
+    <t>+6042-1075</t>
+  </si>
+  <si>
+    <t>+963-1196</t>
+  </si>
+  <si>
+    <t>+960-1196</t>
+  </si>
+  <si>
+    <t>+962-1196</t>
+  </si>
+  <si>
+    <t>+2296-905</t>
+  </si>
+  <si>
+    <t>+6052-1075</t>
+  </si>
+  <si>
+    <t>+265-1703</t>
+  </si>
+  <si>
+    <t>+3914-920</t>
+  </si>
+  <si>
+    <t>+766-590</t>
+  </si>
+  <si>
+    <t>+1158-1451</t>
+  </si>
+  <si>
+    <t>+10828-627</t>
+  </si>
+  <si>
+    <t>+478-1470</t>
+  </si>
+  <si>
+    <t>+188076-77</t>
+  </si>
+  <si>
+    <t>+421-1548</t>
+  </si>
+  <si>
+    <t>+1110-1289</t>
+  </si>
+  <si>
+    <t>723-1282</t>
+  </si>
+  <si>
+    <t>+1767-1319</t>
+  </si>
+  <si>
+    <t>+1129-578</t>
+  </si>
+  <si>
+    <t>+5222-740</t>
+  </si>
+  <si>
+    <t>479-596</t>
+  </si>
+  <si>
+    <t>+2729-1085</t>
+  </si>
+  <si>
+    <t>+964-1196</t>
+  </si>
+  <si>
+    <t>+12632-410</t>
+  </si>
+  <si>
+    <t>+2318-545</t>
+  </si>
+  <si>
+    <t>+533-1324</t>
+  </si>
+  <si>
+    <t>+17030-118</t>
+  </si>
+  <si>
+    <t>+23939-192</t>
+  </si>
+  <si>
+    <t>+338-2114</t>
+  </si>
+  <si>
+    <t>+844-1371</t>
+  </si>
+  <si>
+    <t>+0056-1748</t>
+  </si>
+  <si>
+    <t>+2287-655</t>
+  </si>
+  <si>
+    <t>+4523-260</t>
   </si>
 </sst>
 </file>
@@ -4295,10 +4778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A379"/>
+  <dimension ref="A1:A163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
-      <selection activeCell="A380" sqref="A380"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4308,1897 +4791,817 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>936</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>937</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>938</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>939</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>940</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>941</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>942</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>943</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>944</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>945</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>946</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>947</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>948</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>949</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>950</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>951</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>952</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>953</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>954</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>955</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>956</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>957</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>958</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>959</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>960</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>961</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>962</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>963</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>964</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>965</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>966</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>945</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>967</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>968</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>969</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>970</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>971</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>972</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>973</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>974</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>975</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>976</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>977</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>978</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>979</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>980</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>981</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>982</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>983</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>984</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>985</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>986</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>987</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>988</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>989</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>990</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>991</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>992</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>993</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>994</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>995</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>996</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>997</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>998</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>999</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>1000</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>1001</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>1002</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>1003</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>1004</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>1005</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>1006</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>1007</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>1008</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>1009</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>1010</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>1011</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>1012</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>1013</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>1014</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>1015</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>1016</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>1017</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>1018</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>1019</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>1020</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>1021</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>1022</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>1023</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>1024</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>1025</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>1026</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>1027</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>1028</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>1029</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>1030</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>1031</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>1032</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>1033</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>1034</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>1035</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>1036</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>1037</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>1038</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>1039</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>1040</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>1041</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>1042</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>1043</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>1044</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>1045</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>1046</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>1047</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>1048</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>1049</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>1050</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>1051</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>1052</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>1053</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>1054</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>1055</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>1056</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>1057</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>1058</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>1059</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>1060</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>1061</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>1062</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>1063</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>1064</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>1065</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>1066</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>1067</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>1068</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>1069</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>1070</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>1071</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>1072</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>1073</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>1074</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>1075</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>1076</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>1077</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>1078</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>1079</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>1080</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>1081</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>1082</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>1083</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>1084</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>1085</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>1086</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>1087</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>1088</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>1089</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>1090</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>1091</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>1092</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>1093</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>1094</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>1095</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>1096</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="1" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="1" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="1" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="1" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="1" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="1" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="1" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="1" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="1" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="1" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="1" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="1" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="1" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="1" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="1" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="1" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="1" t="s">
-        <v>1313</v>
+        <v>1474</v>
       </c>
     </row>
   </sheetData>
@@ -6209,10 +5612,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H307"/>
+  <dimension ref="A1:J380"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="I380" sqref="I380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6221,9 +5624,10 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>44828</v>
       </c>
@@ -6248,8 +5652,14 @@
       <c r="H1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="2">
+        <v>44833</v>
+      </c>
+      <c r="J1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>223</v>
       </c>
@@ -6274,8 +5684,14 @@
       <c r="H2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>225</v>
       </c>
@@ -6300,8 +5716,14 @@
       <c r="H3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>227</v>
       </c>
@@ -6326,8 +5748,14 @@
       <c r="H4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>229</v>
       </c>
@@ -6352,8 +5780,14 @@
       <c r="H5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>231</v>
       </c>
@@ -6378,8 +5812,14 @@
       <c r="H6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="J6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>233</v>
       </c>
@@ -6404,8 +5844,14 @@
       <c r="H7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>235</v>
       </c>
@@ -6430,8 +5876,14 @@
       <c r="H8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="J8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>237</v>
       </c>
@@ -6456,8 +5908,14 @@
       <c r="H9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>239</v>
       </c>
@@ -6482,8 +5940,14 @@
       <c r="H10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="J10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>241</v>
       </c>
@@ -6508,8 +5972,14 @@
       <c r="H11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>243</v>
       </c>
@@ -6534,8 +6004,14 @@
       <c r="H12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>245</v>
       </c>
@@ -6560,8 +6036,14 @@
       <c r="H13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>247</v>
       </c>
@@ -6586,8 +6068,14 @@
       <c r="H14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>249</v>
       </c>
@@ -6612,8 +6100,14 @@
       <c r="H15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="J15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>251</v>
       </c>
@@ -6638,8 +6132,14 @@
       <c r="H16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="J16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>253</v>
       </c>
@@ -6664,8 +6164,14 @@
       <c r="H17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="J17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>255</v>
       </c>
@@ -6690,8 +6196,14 @@
       <c r="H18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="J18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>257</v>
       </c>
@@ -6716,8 +6228,14 @@
       <c r="H19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>259</v>
       </c>
@@ -6742,8 +6260,14 @@
       <c r="H20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>261</v>
       </c>
@@ -6768,8 +6292,14 @@
       <c r="H21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>263</v>
       </c>
@@ -6794,8 +6324,14 @@
       <c r="H22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="J22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>265</v>
       </c>
@@ -6820,8 +6356,14 @@
       <c r="H23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="J23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>267</v>
       </c>
@@ -6846,8 +6388,14 @@
       <c r="H24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="J24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>269</v>
       </c>
@@ -6872,8 +6420,14 @@
       <c r="H25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="J25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>271</v>
       </c>
@@ -6898,8 +6452,14 @@
       <c r="H26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="J26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>273</v>
       </c>
@@ -6924,8 +6484,14 @@
       <c r="H27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="J27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>275</v>
       </c>
@@ -6950,8 +6516,14 @@
       <c r="H28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="J28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>277</v>
       </c>
@@ -6976,8 +6548,14 @@
       <c r="H29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="J29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>279</v>
       </c>
@@ -7002,8 +6580,14 @@
       <c r="H30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="J30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>281</v>
       </c>
@@ -7028,8 +6612,14 @@
       <c r="H31" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="J31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>283</v>
       </c>
@@ -7054,8 +6644,14 @@
       <c r="H32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="J32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>285</v>
       </c>
@@ -7080,8 +6676,14 @@
       <c r="H33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="J33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>287</v>
       </c>
@@ -7106,8 +6708,14 @@
       <c r="H34" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="J34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>289</v>
       </c>
@@ -7132,8 +6740,14 @@
       <c r="H35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="J35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>291</v>
       </c>
@@ -7158,8 +6772,14 @@
       <c r="H36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="J36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>293</v>
       </c>
@@ -7184,8 +6804,14 @@
       <c r="H37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="J37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>295</v>
       </c>
@@ -7210,8 +6836,14 @@
       <c r="H38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="J38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>297</v>
       </c>
@@ -7236,8 +6868,14 @@
       <c r="H39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="J39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>299</v>
       </c>
@@ -7262,8 +6900,14 @@
       <c r="H40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="J40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>301</v>
       </c>
@@ -7288,8 +6932,14 @@
       <c r="H41" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="J41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>303</v>
       </c>
@@ -7314,8 +6964,14 @@
       <c r="H42" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="J42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>305</v>
       </c>
@@ -7340,8 +6996,14 @@
       <c r="H43" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="J43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>307</v>
       </c>
@@ -7366,8 +7028,14 @@
       <c r="H44" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="J44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>309</v>
       </c>
@@ -7392,8 +7060,14 @@
       <c r="H45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="J45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>311</v>
       </c>
@@ -7418,8 +7092,14 @@
       <c r="H46" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="J46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>313</v>
       </c>
@@ -7444,8 +7124,14 @@
       <c r="H47" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="J47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>315</v>
       </c>
@@ -7470,8 +7156,14 @@
       <c r="H48" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="J48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>317</v>
       </c>
@@ -7496,8 +7188,14 @@
       <c r="H49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="J49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>319</v>
       </c>
@@ -7522,8 +7220,14 @@
       <c r="H50" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="J50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>321</v>
       </c>
@@ -7548,8 +7252,14 @@
       <c r="H51" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="J51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>323</v>
       </c>
@@ -7574,8 +7284,14 @@
       <c r="H52" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="J52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>325</v>
       </c>
@@ -7600,8 +7316,14 @@
       <c r="H53" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="J53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>327</v>
       </c>
@@ -7626,8 +7348,14 @@
       <c r="H54" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="J54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>329</v>
       </c>
@@ -7652,8 +7380,14 @@
       <c r="H55" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="J55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>331</v>
       </c>
@@ -7678,8 +7412,14 @@
       <c r="H56" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="J56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>333</v>
       </c>
@@ -7704,8 +7444,14 @@
       <c r="H57" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="J57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>335</v>
       </c>
@@ -7730,8 +7476,14 @@
       <c r="H58" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="J58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>337</v>
       </c>
@@ -7756,8 +7508,14 @@
       <c r="H59" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="J59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>339</v>
       </c>
@@ -7782,8 +7540,14 @@
       <c r="H60" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="J60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>341</v>
       </c>
@@ -7808,8 +7572,14 @@
       <c r="H61" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="J61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>343</v>
       </c>
@@ -7834,8 +7604,14 @@
       <c r="H62" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="J62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>345</v>
       </c>
@@ -7860,8 +7636,14 @@
       <c r="H63" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="J63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>347</v>
       </c>
@@ -7886,8 +7668,14 @@
       <c r="H64" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="J64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>349</v>
       </c>
@@ -7912,8 +7700,14 @@
       <c r="H65" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="J65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>351</v>
       </c>
@@ -7938,8 +7732,14 @@
       <c r="H66" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="J66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>353</v>
       </c>
@@ -7964,8 +7764,14 @@
       <c r="H67" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>355</v>
       </c>
@@ -7990,8 +7796,14 @@
       <c r="H68" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>357</v>
       </c>
@@ -8016,8 +7828,14 @@
       <c r="H69" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>359</v>
       </c>
@@ -8042,8 +7860,14 @@
       <c r="H70" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>361</v>
       </c>
@@ -8068,8 +7892,14 @@
       <c r="H71" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>363</v>
       </c>
@@ -8094,8 +7924,14 @@
       <c r="H72" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>365</v>
       </c>
@@ -8120,8 +7956,14 @@
       <c r="H73" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>367</v>
       </c>
@@ -8146,8 +7988,14 @@
       <c r="H74" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>369</v>
       </c>
@@ -8172,8 +8020,14 @@
       <c r="H75" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>371</v>
       </c>
@@ -8198,8 +8052,14 @@
       <c r="H76" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>373</v>
       </c>
@@ -8224,8 +8084,14 @@
       <c r="H77" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>375</v>
       </c>
@@ -8250,8 +8116,14 @@
       <c r="H78" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>377</v>
       </c>
@@ -8276,8 +8148,14 @@
       <c r="H79" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>379</v>
       </c>
@@ -8302,8 +8180,14 @@
       <c r="H80" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>381</v>
       </c>
@@ -8328,8 +8212,14 @@
       <c r="H81" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>383</v>
       </c>
@@ -8354,8 +8244,14 @@
       <c r="H82" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>385</v>
       </c>
@@ -8380,8 +8276,14 @@
       <c r="H83" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>387</v>
       </c>
@@ -8406,8 +8308,14 @@
       <c r="H84" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>389</v>
       </c>
@@ -8432,8 +8340,14 @@
       <c r="H85" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>391</v>
       </c>
@@ -8458,8 +8372,14 @@
       <c r="H86" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>393</v>
       </c>
@@ -8484,8 +8404,14 @@
       <c r="H87" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>395</v>
       </c>
@@ -8510,8 +8436,14 @@
       <c r="H88" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>397</v>
       </c>
@@ -8536,8 +8468,14 @@
       <c r="H89" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>399</v>
       </c>
@@ -8562,8 +8500,14 @@
       <c r="H90" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>401</v>
       </c>
@@ -8588,8 +8532,14 @@
       <c r="H91" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>403</v>
       </c>
@@ -8614,8 +8564,14 @@
       <c r="H92" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>405</v>
       </c>
@@ -8640,8 +8596,14 @@
       <c r="H93" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>407</v>
       </c>
@@ -8666,8 +8628,14 @@
       <c r="H94" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>409</v>
       </c>
@@ -8692,8 +8660,14 @@
       <c r="H95" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>411</v>
       </c>
@@ -8718,8 +8692,14 @@
       <c r="H96" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>413</v>
       </c>
@@ -8744,8 +8724,14 @@
       <c r="H97" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>415</v>
       </c>
@@ -8770,8 +8756,14 @@
       <c r="H98" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>417</v>
       </c>
@@ -8796,8 +8788,14 @@
       <c r="H99" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>419</v>
       </c>
@@ -8822,8 +8820,14 @@
       <c r="H100" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>421</v>
       </c>
@@ -8848,8 +8852,14 @@
       <c r="H101" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>423</v>
       </c>
@@ -8874,8 +8884,14 @@
       <c r="H102" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>425</v>
       </c>
@@ -8900,8 +8916,14 @@
       <c r="H103" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>427</v>
       </c>
@@ -8926,8 +8948,14 @@
       <c r="H104" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>429</v>
       </c>
@@ -8952,8 +8980,14 @@
       <c r="H105" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>431</v>
       </c>
@@ -8978,8 +9012,14 @@
       <c r="H106" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>433</v>
       </c>
@@ -9004,8 +9044,14 @@
       <c r="H107" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>435</v>
       </c>
@@ -9030,8 +9076,14 @@
       <c r="H108" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>437</v>
       </c>
@@ -9056,8 +9108,14 @@
       <c r="H109" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>439</v>
       </c>
@@ -9082,8 +9140,14 @@
       <c r="H110" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>441</v>
       </c>
@@ -9108,8 +9172,14 @@
       <c r="H111" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>443</v>
       </c>
@@ -9134,8 +9204,14 @@
       <c r="H112" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>445</v>
       </c>
@@ -9160,8 +9236,14 @@
       <c r="H113" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>447</v>
       </c>
@@ -9186,8 +9268,14 @@
       <c r="H114" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>449</v>
       </c>
@@ -9212,8 +9300,14 @@
       <c r="H115" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>451</v>
       </c>
@@ -9238,8 +9332,14 @@
       <c r="H116" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>453</v>
       </c>
@@ -9264,8 +9364,14 @@
       <c r="H117" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>455</v>
       </c>
@@ -9290,8 +9396,14 @@
       <c r="H118" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>457</v>
       </c>
@@ -9316,8 +9428,14 @@
       <c r="H119" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>459</v>
       </c>
@@ -9342,8 +9460,14 @@
       <c r="H120" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>461</v>
       </c>
@@ -9368,8 +9492,14 @@
       <c r="H121" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="J121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>463</v>
       </c>
@@ -9394,8 +9524,14 @@
       <c r="H122" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>465</v>
       </c>
@@ -9420,8 +9556,14 @@
       <c r="H123" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>467</v>
       </c>
@@ -9446,8 +9588,14 @@
       <c r="H124" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C125" s="1" t="s">
         <v>469</v>
       </c>
@@ -9466,8 +9614,14 @@
       <c r="H125" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I125" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="J125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C126" s="1" t="s">
         <v>470</v>
       </c>
@@ -9486,8 +9640,14 @@
       <c r="H126" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C127" s="1" t="s">
         <v>471</v>
       </c>
@@ -9506,8 +9666,14 @@
       <c r="H127" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I127" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="J127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C128" s="1" t="s">
         <v>472</v>
       </c>
@@ -9526,8 +9692,14 @@
       <c r="H128" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I128" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C129" s="1" t="s">
         <v>473</v>
       </c>
@@ -9546,8 +9718,14 @@
       <c r="H129" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I129" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C130" s="1" t="s">
         <v>474</v>
       </c>
@@ -9566,8 +9744,14 @@
       <c r="H130" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="131" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I130" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C131" s="1" t="s">
         <v>475</v>
       </c>
@@ -9586,8 +9770,14 @@
       <c r="H131" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="132" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I131" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C132" s="1" t="s">
         <v>476</v>
       </c>
@@ -9606,8 +9796,14 @@
       <c r="H132" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I132" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C133" s="1" t="s">
         <v>477</v>
       </c>
@@ -9626,8 +9822,14 @@
       <c r="H133" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I133" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C134" s="1" t="s">
         <v>478</v>
       </c>
@@ -9646,8 +9848,14 @@
       <c r="H134" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="135" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I134" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C135" s="1" t="s">
         <v>479</v>
       </c>
@@ -9666,8 +9874,14 @@
       <c r="H135" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I135" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C136" s="1" t="s">
         <v>480</v>
       </c>
@@ -9686,8 +9900,14 @@
       <c r="H136" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="137" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I136" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C137" s="1" t="s">
         <v>481</v>
       </c>
@@ -9706,8 +9926,14 @@
       <c r="H137" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="138" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I137" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C138" s="1" t="s">
         <v>482</v>
       </c>
@@ -9726,8 +9952,14 @@
       <c r="H138" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I138" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C139" s="1" t="s">
         <v>483</v>
       </c>
@@ -9746,8 +9978,14 @@
       <c r="H139" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I139" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C140" s="1" t="s">
         <v>484</v>
       </c>
@@ -9766,8 +10004,14 @@
       <c r="H140" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I140" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C141" s="1" t="s">
         <v>485</v>
       </c>
@@ -9786,8 +10030,14 @@
       <c r="H141" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="142" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I141" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C142" s="1" t="s">
         <v>486</v>
       </c>
@@ -9806,8 +10056,14 @@
       <c r="H142" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="143" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I142" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C143" s="1" t="s">
         <v>487</v>
       </c>
@@ -9826,8 +10082,14 @@
       <c r="H143" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="144" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I143" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C144" s="1" t="s">
         <v>488</v>
       </c>
@@ -9846,8 +10108,14 @@
       <c r="H144" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="145" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I144" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C145" s="1" t="s">
         <v>489</v>
       </c>
@@ -9866,8 +10134,14 @@
       <c r="H145" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="146" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I145" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C146" s="1" t="s">
         <v>490</v>
       </c>
@@ -9886,8 +10160,14 @@
       <c r="H146" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="147" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I146" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C147" s="1" t="s">
         <v>491</v>
       </c>
@@ -9906,8 +10186,14 @@
       <c r="H147" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="148" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I147" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="J147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C148" s="1" t="s">
         <v>492</v>
       </c>
@@ -9926,8 +10212,14 @@
       <c r="H148" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="149" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I148" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C149" s="1" t="s">
         <v>493</v>
       </c>
@@ -9946,8 +10238,14 @@
       <c r="H149" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="150" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I149" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C150" s="1" t="s">
         <v>494</v>
       </c>
@@ -9966,8 +10264,14 @@
       <c r="H150" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="151" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I150" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C151" s="1" t="s">
         <v>495</v>
       </c>
@@ -9986,8 +10290,14 @@
       <c r="H151" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="152" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I151" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C152" s="1" t="s">
         <v>496</v>
       </c>
@@ -10006,8 +10316,14 @@
       <c r="H152" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="153" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I152" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C153" s="1" t="s">
         <v>497</v>
       </c>
@@ -10026,8 +10342,14 @@
       <c r="H153" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="154" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I153" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="J153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C154" s="1" t="s">
         <v>498</v>
       </c>
@@ -10046,8 +10368,14 @@
       <c r="H154" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="155" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I154" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C155" s="1" t="s">
         <v>499</v>
       </c>
@@ -10066,8 +10394,14 @@
       <c r="H155" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="156" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I155" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J155" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C156" s="1" t="s">
         <v>500</v>
       </c>
@@ -10086,8 +10420,14 @@
       <c r="H156" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I156" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J156" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C157" s="1" t="s">
         <v>501</v>
       </c>
@@ -10106,8 +10446,14 @@
       <c r="H157" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="158" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I157" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C158" s="1" t="s">
         <v>502</v>
       </c>
@@ -10126,8 +10472,14 @@
       <c r="H158" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="159" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I158" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C159" s="1" t="s">
         <v>503</v>
       </c>
@@ -10146,8 +10498,14 @@
       <c r="H159" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="160" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I159" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C160" s="1" t="s">
         <v>504</v>
       </c>
@@ -10166,8 +10524,14 @@
       <c r="H160" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="161" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I160" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="J160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C161" s="1" t="s">
         <v>505</v>
       </c>
@@ -10186,8 +10550,14 @@
       <c r="H161" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="162" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I161" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C162" s="1" t="s">
         <v>506</v>
       </c>
@@ -10206,8 +10576,14 @@
       <c r="H162" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="163" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I162" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C163" s="1" t="s">
         <v>507</v>
       </c>
@@ -10226,8 +10602,14 @@
       <c r="H163" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="164" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I163" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C164" s="1" t="s">
         <v>508</v>
       </c>
@@ -10246,8 +10628,14 @@
       <c r="H164" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="165" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I164" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C165" s="1" t="s">
         <v>509</v>
       </c>
@@ -10266,8 +10654,14 @@
       <c r="H165" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="166" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I165" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C166" s="1" t="s">
         <v>510</v>
       </c>
@@ -10286,8 +10680,14 @@
       <c r="H166" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="167" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I166" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J166" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C167" s="1" t="s">
         <v>511</v>
       </c>
@@ -10306,8 +10706,14 @@
       <c r="H167" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="168" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I167" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C168" s="1" t="s">
         <v>512</v>
       </c>
@@ -10320,8 +10726,14 @@
       <c r="F168" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="169" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I168" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J168" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C169" s="1" t="s">
         <v>513</v>
       </c>
@@ -10334,8 +10746,14 @@
       <c r="F169" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="170" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I169" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J169" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C170" s="1" t="s">
         <v>514</v>
       </c>
@@ -10348,8 +10766,14 @@
       <c r="F170" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="171" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I170" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J170" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C171" s="1" t="s">
         <v>515</v>
       </c>
@@ -10362,8 +10786,14 @@
       <c r="F171" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="172" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I171" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J171" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C172" s="1" t="s">
         <v>516</v>
       </c>
@@ -10376,8 +10806,14 @@
       <c r="F172" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="173" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I172" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="J172" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C173" s="1" t="s">
         <v>517</v>
       </c>
@@ -10390,8 +10826,14 @@
       <c r="F173" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="174" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I173" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J173" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C174" s="1" t="s">
         <v>518</v>
       </c>
@@ -10404,8 +10846,14 @@
       <c r="F174" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="175" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I174" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J174" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C175" s="1" t="s">
         <v>519</v>
       </c>
@@ -10418,8 +10866,14 @@
       <c r="F175" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="176" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I175" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="J175" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C176" s="1" t="s">
         <v>520</v>
       </c>
@@ -10432,8 +10886,14 @@
       <c r="F176" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I176" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C177" s="1" t="s">
         <v>521</v>
       </c>
@@ -10446,8 +10906,14 @@
       <c r="F177" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I177" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C178" s="1" t="s">
         <v>522</v>
       </c>
@@ -10460,8 +10926,14 @@
       <c r="F178" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I178" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="J178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C179" s="1" t="s">
         <v>523</v>
       </c>
@@ -10474,8 +10946,14 @@
       <c r="F179" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I179" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J179" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C180" s="1" t="s">
         <v>524</v>
       </c>
@@ -10488,8 +10966,14 @@
       <c r="F180" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I180" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="J180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C181" s="1" t="s">
         <v>525</v>
       </c>
@@ -10502,8 +10986,14 @@
       <c r="F181" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I181" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="J181" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C182" s="1" t="s">
         <v>526</v>
       </c>
@@ -10516,8 +11006,14 @@
       <c r="F182" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I182" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J182" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C183" s="1" t="s">
         <v>527</v>
       </c>
@@ -10530,8 +11026,14 @@
       <c r="F183" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I183" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J183" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C184" s="1" t="s">
         <v>528</v>
       </c>
@@ -10544,8 +11046,14 @@
       <c r="F184" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I184" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C185" s="1" t="s">
         <v>529</v>
       </c>
@@ -10558,8 +11066,14 @@
       <c r="F185" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I185" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J185" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C186" s="1" t="s">
         <v>530</v>
       </c>
@@ -10572,8 +11086,14 @@
       <c r="F186" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I186" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J186" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C187" s="1" t="s">
         <v>531</v>
       </c>
@@ -10586,8 +11106,14 @@
       <c r="F187" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I187" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C188" s="1" t="s">
         <v>532</v>
       </c>
@@ -10600,8 +11126,14 @@
       <c r="F188" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I188" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J188" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C189" s="1" t="s">
         <v>533</v>
       </c>
@@ -10614,8 +11146,14 @@
       <c r="F189" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I189" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="J189" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C190" s="1" t="s">
         <v>534</v>
       </c>
@@ -10628,8 +11166,14 @@
       <c r="F190" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I190" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="J190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C191" s="1" t="s">
         <v>535</v>
       </c>
@@ -10642,8 +11186,14 @@
       <c r="F191" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I191" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J191" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C192" s="1" t="s">
         <v>536</v>
       </c>
@@ -10656,8 +11206,14 @@
       <c r="F192" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I192" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J192" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C193" s="1" t="s">
         <v>537</v>
       </c>
@@ -10670,8 +11226,14 @@
       <c r="F193" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I193" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C194" s="1" t="s">
         <v>538</v>
       </c>
@@ -10684,8 +11246,14 @@
       <c r="F194" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I194" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J194" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C195" s="1" t="s">
         <v>539</v>
       </c>
@@ -10698,8 +11266,14 @@
       <c r="F195" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I195" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="J195" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C196" s="1" t="s">
         <v>540</v>
       </c>
@@ -10712,8 +11286,14 @@
       <c r="F196" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I196" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J196" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C197" s="1" t="s">
         <v>541</v>
       </c>
@@ -10726,8 +11306,14 @@
       <c r="F197" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I197" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="J197" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C198" s="1" t="s">
         <v>542</v>
       </c>
@@ -10740,8 +11326,14 @@
       <c r="F198" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I198" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="J198" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C199" s="1" t="s">
         <v>543</v>
       </c>
@@ -10754,8 +11346,14 @@
       <c r="F199" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I199" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J199" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C200" s="1" t="s">
         <v>544</v>
       </c>
@@ -10768,8 +11366,14 @@
       <c r="F200" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I200" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J200" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C201" s="1" t="s">
         <v>545</v>
       </c>
@@ -10782,8 +11386,14 @@
       <c r="F201" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I201" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="J201" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C202" s="1" t="s">
         <v>546</v>
       </c>
@@ -10796,8 +11406,14 @@
       <c r="F202" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I202" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J202" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C203" s="1" t="s">
         <v>547</v>
       </c>
@@ -10810,8 +11426,14 @@
       <c r="F203" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I203" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="J203" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C204" s="1" t="s">
         <v>548</v>
       </c>
@@ -10824,8 +11446,14 @@
       <c r="F204" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I204" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="J204" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C205" s="1" t="s">
         <v>549</v>
       </c>
@@ -10838,8 +11466,14 @@
       <c r="F205" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I205" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="J205" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C206" s="1" t="s">
         <v>550</v>
       </c>
@@ -10852,8 +11486,14 @@
       <c r="F206" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I206" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="J206" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C207" s="1" t="s">
         <v>551</v>
       </c>
@@ -10866,8 +11506,14 @@
       <c r="F207" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I207" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="J207" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C208" s="1" t="s">
         <v>552</v>
       </c>
@@ -10880,8 +11526,14 @@
       <c r="F208" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I208" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J208" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C209" s="1" t="s">
         <v>553</v>
       </c>
@@ -10894,8 +11546,14 @@
       <c r="F209" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I209" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="J209" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C210" s="1" t="s">
         <v>554</v>
       </c>
@@ -10908,8 +11566,14 @@
       <c r="F210" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I210" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J210" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C211" s="1" t="s">
         <v>555</v>
       </c>
@@ -10922,8 +11586,14 @@
       <c r="F211" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I211" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J211" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C212" s="1" t="s">
         <v>556</v>
       </c>
@@ -10936,8 +11606,14 @@
       <c r="F212" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I212" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="J212" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C213" s="1" t="s">
         <v>557</v>
       </c>
@@ -10950,8 +11626,14 @@
       <c r="F213" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I213" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="J213" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C214" s="1" t="s">
         <v>558</v>
       </c>
@@ -10964,8 +11646,14 @@
       <c r="F214" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I214" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="J214" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C215" s="1" t="s">
         <v>559</v>
       </c>
@@ -10978,8 +11666,14 @@
       <c r="F215" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I215" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="J215" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C216" s="1" t="s">
         <v>560</v>
       </c>
@@ -10992,8 +11686,14 @@
       <c r="F216" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I216" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J216" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C217" s="1" t="s">
         <v>561</v>
       </c>
@@ -11006,8 +11706,14 @@
       <c r="F217" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I217" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J217" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C218" s="1" t="s">
         <v>562</v>
       </c>
@@ -11020,8 +11726,14 @@
       <c r="F218" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I218" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="J218" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C219" s="1" t="s">
         <v>563</v>
       </c>
@@ -11034,8 +11746,14 @@
       <c r="F219" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I219" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="J219" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C220" s="1" t="s">
         <v>564</v>
       </c>
@@ -11048,8 +11766,14 @@
       <c r="F220" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I220" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="J220" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C221" s="1" t="s">
         <v>565</v>
       </c>
@@ -11062,692 +11786,1798 @@
       <c r="F221" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I221" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J221" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C222" s="1" t="s">
         <v>566</v>
       </c>
       <c r="D222" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I222" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="J222" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C223" s="1" t="s">
         <v>567</v>
       </c>
       <c r="D223" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I223" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="J223" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C224" s="1" t="s">
         <v>568</v>
       </c>
       <c r="D224" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I224" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="J224" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C225" s="1" t="s">
         <v>569</v>
       </c>
       <c r="D225" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I225" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="J225" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C226" s="1" t="s">
         <v>570</v>
       </c>
       <c r="D226" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I226" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J226" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C227" s="1" t="s">
         <v>571</v>
       </c>
       <c r="D227" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I227" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="J227" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C228" s="1" t="s">
         <v>572</v>
       </c>
       <c r="D228" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I228" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="J228" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C229" s="1" t="s">
         <v>573</v>
       </c>
       <c r="D229" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I229" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="J229" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C230" s="1" t="s">
         <v>574</v>
       </c>
       <c r="D230" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I230" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J230" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C231" s="1" t="s">
         <v>575</v>
       </c>
       <c r="D231" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="232" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I231" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="J231" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C232" s="1" t="s">
         <v>576</v>
       </c>
       <c r="D232" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="233" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I232" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="J232" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C233" s="1" t="s">
         <v>577</v>
       </c>
       <c r="D233" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="234" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I233" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="J233" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C234" s="1" t="s">
         <v>578</v>
       </c>
       <c r="D234" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="235" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I234" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="J234" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C235" s="1" t="s">
         <v>579</v>
       </c>
       <c r="D235" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="236" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I235" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="J235" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C236" s="1" t="s">
         <v>580</v>
       </c>
       <c r="D236" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="237" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I236" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="J236" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C237" s="1" t="s">
         <v>581</v>
       </c>
       <c r="D237" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="238" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I237" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="J237" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C238" s="1" t="s">
         <v>582</v>
       </c>
       <c r="D238" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="239" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I238" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J238" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C239" s="1" t="s">
         <v>583</v>
       </c>
       <c r="D239" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="240" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I239" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J239" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C240" s="1" t="s">
         <v>584</v>
       </c>
       <c r="D240" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="241" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I240" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J240" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C241" s="1" t="s">
         <v>585</v>
       </c>
       <c r="D241" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="242" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I241" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="J241" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C242" s="1" t="s">
         <v>586</v>
       </c>
       <c r="D242" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="243" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I242" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J242" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C243" s="1" t="s">
         <v>587</v>
       </c>
       <c r="D243" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="244" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I243" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="J243" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C244" s="1" t="s">
         <v>588</v>
       </c>
       <c r="D244" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="245" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I244" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J244" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C245" s="1" t="s">
         <v>589</v>
       </c>
       <c r="D245" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="246" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I245" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="J245" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C246" s="1" t="s">
         <v>590</v>
       </c>
       <c r="D246" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="247" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I246" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="J246" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C247" s="1" t="s">
         <v>591</v>
       </c>
       <c r="D247" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="248" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I247" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="J247" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C248" s="1" t="s">
         <v>592</v>
       </c>
       <c r="D248" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="249" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I248" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="J248" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C249" s="1" t="s">
         <v>593</v>
       </c>
       <c r="D249" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="250" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I249" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J249" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C250" s="1" t="s">
         <v>594</v>
       </c>
       <c r="D250" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="251" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I250" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="J250" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C251" s="1" t="s">
         <v>595</v>
       </c>
       <c r="D251" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="252" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I251" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="J251" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C252" s="1" t="s">
         <v>596</v>
       </c>
       <c r="D252" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="253" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I252" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="J252" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C253" s="1" t="s">
         <v>597</v>
       </c>
       <c r="D253" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="254" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I253" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="J253" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C254" s="1" t="s">
         <v>598</v>
       </c>
       <c r="D254" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="255" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I254" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J254" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C255" s="1" t="s">
         <v>599</v>
       </c>
       <c r="D255" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="256" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I255" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="J255" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C256" s="1" t="s">
         <v>600</v>
       </c>
       <c r="D256" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="257" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I256" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J256" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C257" s="1" t="s">
         <v>601</v>
       </c>
       <c r="D257" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="258" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I257" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="J257" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C258" s="1" t="s">
         <v>602</v>
       </c>
       <c r="D258" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="259" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I258" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="J258" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C259" s="1" t="s">
         <v>603</v>
       </c>
       <c r="D259" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="260" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I259" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="J259" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C260" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D260" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="261" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I260" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J260" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C261" s="1" t="s">
         <v>605</v>
       </c>
       <c r="D261" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="262" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I261" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="J261" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C262" s="1" t="s">
         <v>606</v>
       </c>
       <c r="D262" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="263" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I262" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J262" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C263" s="1" t="s">
         <v>607</v>
       </c>
       <c r="D263" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="264" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I263" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J263" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C264" s="1" t="s">
         <v>608</v>
       </c>
       <c r="D264" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="265" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I264" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="J264" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C265" s="1" t="s">
         <v>609</v>
       </c>
       <c r="D265" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="266" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I265" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="J265" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C266" s="1" t="s">
         <v>610</v>
       </c>
       <c r="D266" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="267" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I266" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="J266" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C267" s="1" t="s">
         <v>611</v>
       </c>
       <c r="D267" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="268" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I267" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="J267" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C268" s="1" t="s">
         <v>612</v>
       </c>
       <c r="D268" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="269" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I268" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J268" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C269" s="1" t="s">
         <v>613</v>
       </c>
       <c r="D269" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="270" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I269" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="J269" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C270" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D270" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="271" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I270" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J270" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C271" s="1" t="s">
         <v>615</v>
       </c>
       <c r="D271" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="272" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I271" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J271" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C272" s="1" t="s">
         <v>616</v>
       </c>
       <c r="D272" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="273" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I272" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="J272" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C273" s="1" t="s">
         <v>617</v>
       </c>
       <c r="D273" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="274" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I273" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="J273" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C274" s="1" t="s">
         <v>618</v>
       </c>
       <c r="D274" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="275" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I274" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="J274" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C275" s="1" t="s">
         <v>619</v>
       </c>
       <c r="D275" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="276" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I275" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J275" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C276" s="1" t="s">
         <v>620</v>
       </c>
       <c r="D276" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="277" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I276" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="J276" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C277" s="1" t="s">
         <v>621</v>
       </c>
       <c r="D277" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="278" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I277" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="J277" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C278" s="1" t="s">
         <v>622</v>
       </c>
       <c r="D278" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="279" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I278" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="J278" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C279" s="1" t="s">
         <v>623</v>
       </c>
       <c r="D279" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="280" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I279" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J279" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C280" s="1" t="s">
         <v>624</v>
       </c>
       <c r="D280" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="281" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I280" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J280" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C281" s="1" t="s">
         <v>625</v>
       </c>
       <c r="D281" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="282" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I281" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="J281" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C282" s="1" t="s">
         <v>626</v>
       </c>
       <c r="D282" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="283" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I282" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="J282" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C283" s="1" t="s">
         <v>627</v>
       </c>
       <c r="D283" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="284" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I283" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="J283" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C284" s="1" t="s">
         <v>628</v>
       </c>
       <c r="D284" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="285" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I284" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="J284" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C285" s="1" t="s">
         <v>629</v>
       </c>
       <c r="D285" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="286" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I285" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J285" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C286" s="1" t="s">
         <v>630</v>
       </c>
       <c r="D286" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="287" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I286" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="J286" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C287" s="1" t="s">
         <v>631</v>
       </c>
       <c r="D287" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="288" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I287" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="J287" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C288" s="1" t="s">
         <v>632</v>
       </c>
       <c r="D288" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="289" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I288" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J288" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C289" s="1" t="s">
         <v>633</v>
       </c>
       <c r="D289" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="290" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I289" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="J289" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C290" s="1" t="s">
         <v>634</v>
       </c>
       <c r="D290" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="291" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I290" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="J290" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C291" s="1" t="s">
         <v>635</v>
       </c>
       <c r="D291" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="292" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I291" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="J291" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C292" s="1" t="s">
         <v>636</v>
       </c>
       <c r="D292" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="293" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I292" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J292" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C293" s="1" t="s">
         <v>637</v>
       </c>
       <c r="D293" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="294" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I293" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="J293" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C294" s="1" t="s">
         <v>638</v>
       </c>
       <c r="D294" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="295" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I294" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="J294" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C295" s="1" t="s">
         <v>639</v>
       </c>
       <c r="D295" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="296" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I295" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="J295" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C296" s="1" t="s">
         <v>640</v>
       </c>
       <c r="D296" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="297" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I296" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J296" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C297" s="1" t="s">
         <v>641</v>
       </c>
       <c r="D297" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="298" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I297" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="J297" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C298" s="1" t="s">
         <v>642</v>
       </c>
       <c r="D298" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="299" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I298" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J298" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C299" s="1" t="s">
         <v>643</v>
       </c>
       <c r="D299" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="300" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I299" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J299" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C300" s="1" t="s">
         <v>644</v>
       </c>
       <c r="D300" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="301" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I300" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="J300" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C301" s="1" t="s">
         <v>645</v>
       </c>
       <c r="D301" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="302" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I301" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="J301" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C302" s="1" t="s">
         <v>646</v>
       </c>
       <c r="D302" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="303" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I302" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="J302" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C303" s="1" t="s">
         <v>647</v>
       </c>
       <c r="D303" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="304" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I303" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J303" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C304" s="1" t="s">
         <v>648</v>
       </c>
       <c r="D304" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="305" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I304" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="J304" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C305" s="1" t="s">
         <v>649</v>
       </c>
       <c r="D305" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="306" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I305" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J305" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C306" s="1" t="s">
         <v>650</v>
       </c>
       <c r="D306" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="307" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I306" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="J306" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C307" s="1" t="s">
         <v>651</v>
       </c>
       <c r="D307" t="s">
+        <v>6</v>
+      </c>
+      <c r="I307" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J307" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I308" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J308" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I309" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="J309" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I310" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J310" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I311" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J311" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I312" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="J312" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I313" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="J313" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I314" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="J314" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I315" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J315" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I316" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="J316" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="317" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I317" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="J317" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I318" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="J318" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I319" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="J319" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I320" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="J320" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I321" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="J321" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I322" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J322" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I323" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="J323" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I324" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="J324" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I325" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="J325" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I326" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="J326" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I327" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="J327" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I328" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="J328" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I329" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="J329" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I330" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="J330" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I331" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="J331" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I332" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J332" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I333" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J333" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I334" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J334" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I335" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="J335" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I336" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="J336" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I337" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="J337" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I338" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="J338" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I339" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="J339" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="340" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I340" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="J340" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I341" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="J341" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="342" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I342" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="J342" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="343" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I343" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="J343" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I344" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J344" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="345" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I345" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="J345" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I346" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="J346" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I347" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="J347" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I348" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J348" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I349" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="J349" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I350" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J350" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I351" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="J351" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="352" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I352" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="J352" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="353" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I353" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J353" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I354" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="J354" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I355" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J355" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="356" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I356" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J356" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="357" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I357" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="J357" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="358" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I358" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="J358" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I359" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J359" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="360" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I360" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="J360" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="361" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I361" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J361" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="362" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I362" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J362" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I363" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="J363" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I364" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="J364" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="365" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I365" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="J365" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="366" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I366" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="J366" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="367" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I367" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="J367" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="368" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I368" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="J368" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="369" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I369" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J369" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="370" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I370" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J370" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="371" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I371" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J371" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="372" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I372" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J372" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="373" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I373" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="J373" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="374" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I374" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="J374" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="375" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I375" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J375" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="376" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I376" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="J376" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="377" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I377" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="J377" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="378" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I378" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="J378" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I379" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="J379" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="380" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I380" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="J380" t="s">
         <v>6</v>
       </c>
     </row>
